--- a/Search_Results_Google_Shopping.xlsx
+++ b/Search_Results_Google_Shopping.xlsx
@@ -7,21 +7,88 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="iphone 14 pro max 128 gb_Google" sheetId="1" r:id="rId1"/>
+    <sheet name="rtx 4060 ti_Google" sheetId="2" r:id="rId2"/>
+    <sheet name="macbook 16 gb_Google" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>apple iphone 14 pro max 128gb 5g - vitrine - tela super retina xdr oled 6.7 ...</t>
+  </si>
+  <si>
+    <t>apple iphone 14 pro max 128gb dourado 5g tela 6,7" câm. traseira 48+12+12mp frontal 12mp</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.horizonplay.com.br/apple/iphone-de-vitrine/apple-iphone-14-pro-max-128gb-5g-vitrine-tela-super-retina-xdr-oled-6-7%3Fvariant_id%3D22439%26parceiro%3D8926%26srsltid%3DAfmBOopFKy4EOkJzD0HuU6RIDDFK3ueFLXpT8aD5-uju0NhCz5v9LME49fk&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi18aOTz6ODAxXdpZUCHZoABrwQgOUECKgM&amp;usg=AOvVaw27hg4kgJsPo3lKHhqs56Bk</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjeiKqTz6ODAxUyYUgAHbvtAHMYABABGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3oiqk8-jgwMVMmFIAB277QBzEAQYASABEgIXofD_BwE&amp;sig=AOD64_3dVx6EpiS77leeL_Jas3uaEOLeqw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi18aOTz6ODAxXdpZUCHZoABrwQww8I0gs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>placa de vídeo rtx 4060 ti ventus 2x black 8g oc msi nvidia geforce, 8gb gddr6, dlss, ray tracing, g-sync</t>
+  </si>
+  <si>
+    <t>placa de vídeo gigabite nvidia geforce rtx 4060 ti eagle oc 8gb gddr6</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiYqvSYz6ODAxXhVUgAHWOZDEoYABADGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMImKr0mM-jgwMV4VVIAB1jmQxKEAQYAiABEgLaKvD_BwE&amp;sig=AOD64_0JXG2vcLyJYvnMFLCvK_ehZ_dzog&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiroe-Yz6ODAxXVqZUCHRlxDmEQww8Ixg0&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005556102900.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiroe-Yz6ODAxXVqZUCHRlxDmEQguUECO0P&amp;usg=AOvVaw1nXfFDZJrb50Q5t_RskJ85</t>
+  </si>
+  <si>
+    <t>laptop macbook air 2022 com chip m2: tela retina líquida de 13,6 polegadas, 16gb ...</t>
+  </si>
+  <si>
+    <t>macbook air 13.6 m2 256gb 16 ram z15s000ct c/ apple</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005544178685.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi16vqdz6ODAxUwpJUCHarDBBwQgOUECKQT&amp;usg=AOvVaw2adnxkxO0_0ZYwpKhAN2Jg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjI1_-dz6ODAxWfREgAHT2JANEYABAHGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMIyNf_nc-jgwMVn0RIAB09iQDREAQYBCABEgIslfD_BwE&amp;sig=AOD64_2c4LW8m-MAN0Qzivd_Gzw8XPo0jQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi16vqdz6ODAxUwpJUCHarDBBwQww8I3As&amp;adurl=</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -32,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,14 +107,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -340,12 +431,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>5679.06</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>8099</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>2419.99</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>2881.79</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>8952.74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>10269.5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Search_Results_Google_Shopping.xlsx
+++ b/Search_Results_Google_Shopping.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0372639560d1acb6/Trabalho/Python/GitHub Desktop/Shopping_Auto_Search/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_B10D180E9152A4B628ED62F0375B123B4B3E6397" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1D7222A-2FB8-4307-993F-038F08355689}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iphone 14 pro max 128 gb_Google" sheetId="1" r:id="rId1"/>
     <sheet name="rtx 4060 ti_Google" sheetId="2" r:id="rId2"/>
     <sheet name="macbook 16 gb_Google" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Product Name</t>
   </si>
@@ -30,25 +36,106 @@
     <t>apple iphone 14 pro max 128gb 5g - vitrine - tela super retina xdr oled 6.7 ...</t>
   </si>
   <si>
+    <t>apple iphone 14 pro max 128gb roxo-profundo</t>
+  </si>
+  <si>
+    <t>apple iphone 14 pro max (128 gb) - roxo-profundo</t>
+  </si>
+  <si>
+    <t>apple iphone 14 pro max 128gb prateado</t>
+  </si>
+  <si>
     <t>apple iphone 14 pro max 128gb dourado 5g tela 6,7" câm. traseira 48+12+12mp frontal 12mp</t>
   </si>
   <si>
-    <t>https://www.google.com/url?url=https://www.horizonplay.com.br/apple/iphone-de-vitrine/apple-iphone-14-pro-max-128gb-5g-vitrine-tela-super-retina-xdr-oled-6-7%3Fvariant_id%3D22439%26parceiro%3D8926%26srsltid%3DAfmBOopFKy4EOkJzD0HuU6RIDDFK3ueFLXpT8aD5-uju0NhCz5v9LME49fk&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi18aOTz6ODAxXdpZUCHZoABrwQgOUECKgM&amp;usg=AOvVaw27hg4kgJsPo3lKHhqs56Bk</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjeiKqTz6ODAxUyYUgAHbvtAHMYABABGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3oiqk8-jgwMVMmFIAB277QBzEAQYASABEgIXofD_BwE&amp;sig=AOD64_3dVx6EpiS77leeL_Jas3uaEOLeqw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi18aOTz6ODAxXdpZUCHZoABrwQww8I0gs&amp;adurl=</t>
+    <t>apple iphone 14 pro max (128 gb) – dourado</t>
+  </si>
+  <si>
+    <t>iphone 14 pro max 128gb prateado</t>
+  </si>
+  <si>
+    <t>apple iphone 14 pro max 128gb dourado 6,7 48mp, 128gb, dourado, iphone</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.horizonplay.com.br/apple/iphone-de-vitrine/apple-iphone-14-pro-max-128gb-5g-vitrine-tela-super-retina-xdr-oled-6-7%3Fvariant_id%3D22439%26parceiro%3D8926%26srsltid%3DAfmBOoqPussFxSh1eLodHBMrx-G5uYeWYme7F9UYkea3bwSNUZ5r0bg0jtw&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQgOUECOkL&amp;usg=AOvVaw3HLq8h2FwrQfU8dLW8Eory</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje-6a81aODAxV3U0gAHUIvA7MYABAPGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3vumvNWjgwMVd1NIAB1CLwOzEAQYCCABEgJkLPD_BwE&amp;sig=AOD64_2cPZrpxSNKUJzCgyOeK4gLZ1-mIg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQww8Iygs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje-6a81aODAxV3U0gAHUIvA7MYABALGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3vumvNWjgwMVd1NIAB1CLwOzEAQYBiABEgI6TvD_BwE&amp;sig=AOD64_0TwDaHgWatqn-fYlhZLQLzLJ-Ghg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQww8Iwgs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje-6a81aODAxV3U0gAHUIvA7MYABARGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3vumvNWjgwMVd1NIAB1CLwOzEAQYCSABEgLEgfD_BwE&amp;sig=AOD64_3Jwyw5_TL6bBQDqnTArBV48498VQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQww8IzQs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje-6a81aODAxV3U0gAHUIvA7MYABAdGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3vumvNWjgwMVd1NIAB1CLwOzEAsYAyABEgLu_vD_BwE&amp;sig=AOD64_1afNHNzON83V0ntZFG01SM6X9hQw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQ9A4I5xM&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje-6a81aODAxV3U0gAHUIvA7MYABABGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3vumvNWjgwMVd1NIAB1CLwOzEAQYASABEgK4X_D_BwE&amp;sig=AOD64_3_LBq_VItFZWoC75gTFbmMiu0JhA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQww8Irgs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje-6a81aODAxV3U0gAHUIvA7MYABADGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3vumvNWjgwMVd1NIAB1CLwOzEAQYAiABEgJ9k_D_BwE&amp;sig=AOD64_0dbvBW3qdWFo1-1MXUrM7zyhF_rA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQww8Isgs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje-6a81aODAxV3U0gAHUIvA7MYABAFGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3vumvNWjgwMVd1NIAB1CLwOzEAQYAyABEgJk8PD_BwE&amp;sig=AOD64_3CYz6uPI-9oncUvrJWB-mhKAtSjA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQww8Itgs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje-6a81aODAxV3U0gAHUIvA7MYABAJGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3vumvNWjgwMVd1NIAB1CLwOzEAQYBSABEgKSCfD_BwE&amp;sig=AOD64_0_oEMBJoB7RRUaDJ12pckztK7n1A&amp;ctype=46&amp;q=&amp;nis=4&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQqygIvgs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>placa gráfica geforce-rtx 4060ti, placa de vídeo, x3w, oc, 8gb, 128bit, gddr6 ...</t>
   </si>
   <si>
     <t>placa de vídeo rtx 4060 ti ventus 2x black 8g oc msi nvidia geforce, 8gb gddr6, dlss, ray tracing, g-sync</t>
   </si>
   <si>
+    <t>placa de vídeo rtx 4060 ti ventus 2x black 8g oc msi nvidia geforce, 8</t>
+  </si>
+  <si>
+    <t>placa de vídeo rtx 4060 ti click oc galax nvidia geforce, 8 gb gddr6, dlss, ray tracing - 46isl8md8coc</t>
+  </si>
+  <si>
+    <t>placa de vídeo rtx 4060 ti ex galax nvidia geforce, 8 gb gddr6, dlss, ray tracing - 46isl8md8aex</t>
+  </si>
+  <si>
+    <t>placa de video galax geforce rtx 4060 ti ex 1-click oc, 8gb, gddr6, 128-bit, 46isl8md8aex</t>
+  </si>
+  <si>
+    <t>placa de video galax geforce rtx 4060 ti 1-click oc, 8gb, gddr6, 128-bit, 46isl8md8coc</t>
+  </si>
+  <si>
     <t>placa de vídeo gigabite nvidia geforce rtx 4060 ti eagle oc 8gb gddr6</t>
   </si>
   <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiYqvSYz6ODAxXhVUgAHWOZDEoYABADGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMImKr0mM-jgwMV4VVIAB1jmQxKEAQYAiABEgLaKvD_BwE&amp;sig=AOD64_0JXG2vcLyJYvnMFLCvK_ehZ_dzog&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiroe-Yz6ODAxXVqZUCHRlxDmEQww8Ixg0&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005556102900.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiroe-Yz6ODAxXVqZUCHRlxDmEQguUECO0P&amp;usg=AOvVaw1nXfFDZJrb50Q5t_RskJ85</t>
+    <t>placa de vídeo rtx 4060 ti oc edition asus tuf gaming nvidia geforce, 8 gb gddr6, argb, dlss - tuf-rtx4060ti-o8g-gaming</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005006000031260.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8QgOUECMgV&amp;usg=AOvVaw3krcSHVQJQSEv13L8O9OGt</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiSvuzB1aODAxU8N60GHZl1AIkYABADGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMIkr7swdWjgwMVPDetBh2ZdQCJEAQYAiABEgICDPD_BwE&amp;sig=AOD64_0dloao4JS9_i9wI0Dt_tftUqpz4A&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8Qww8Ixw0&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiSvuzB1aODAxU8N60GHZl1AIkYABANGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMIkr7swdWjgwMVPDetBh2ZdQCJEAQYByABEgJpa_D_BwE&amp;sig=AOD64_38NQuiY1gQ-kTS7nORz2V7s1R5GQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8Qww8I2w0&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiSvuzB1aODAxU8N60GHZl1AIkYABAFGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMIkr7swdWjgwMVPDetBh2ZdQCJEAQYAyABEgKVtvD_BwE&amp;sig=AOD64_0mVIS8l-p5WPkUJgW6k0lIdf80vw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8Qww8Iyw0&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiSvuzB1aODAxU8N60GHZl1AIkYABAJGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMIkr7swdWjgwMVPDetBh2ZdQCJEAQYBSABEgJt_fD_BwE&amp;sig=AOD64_2WfDrTvyU0HDSUKKWS3N72KA4Ydw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8Qww8I0w0&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiSvuzB1aODAxU8N60GHZl1AIkYABALGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMIkr7swdWjgwMVPDetBh2ZdQCJEAQYBiABEgIPKPD_BwE&amp;sig=AOD64_20TfcUorgXaeWctbI2-a1-FStgFg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8Qww8I1w0&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiSvuzB1aODAxU8N60GHZl1AIkYABAPGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMIkr7swdWjgwMVPDetBh2ZdQCJEAQYCCABEgKYQfD_BwE&amp;sig=AOD64_0ZZALbMhap07VIaR7UMZV688-XBw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8Qww8I3g0&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005556102900.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8QguUECO4P&amp;usg=AOvVaw0hIGsgA2jiUfnEgs3XWLNN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiSvuzB1aODAxU8N60GHZl1AIkYABAHGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMIkr7swdWjgwMVPDetBh2ZdQCJEAQYBCABEgJQCfD_BwE&amp;sig=AOD64_1vHLoKnM69xPY49v0UFo48VBOXDQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8Qww8Izw0&amp;adurl=</t>
   </si>
   <si>
     <t>laptop macbook air 2022 com chip m2: tela retina líquida de 13,6 polegadas, 16gb ...</t>
@@ -57,17 +144,23 @@
     <t>macbook air 13.6 m2 256gb 16 ram z15s000ct c/ apple</t>
   </si>
   <si>
-    <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005544178685.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi16vqdz6ODAxUwpJUCHarDBBwQgOUECKQT&amp;usg=AOvVaw2adnxkxO0_0ZYwpKhAN2Jg</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjI1_-dz6ODAxWfREgAHT2JANEYABAHGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMIyNf_nc-jgwMVn0RIAB09iQDREAQYBCABEgIslfD_BwE&amp;sig=AOD64_2c4LW8m-MAN0Qzivd_Gzw8XPo0jQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi16vqdz6ODAxUwpJUCHarDBBwQww8I3As&amp;adurl=</t>
+    <t>macbook pro mkgp3/m1/16gb ram/ 512gb ssd/ 14,2 (2021) apple</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005544178685.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjey97G1aODAxUns5UCHdU8A0cQgOUECLES&amp;usg=AOvVaw3QHk1LsK2hNu6-mfJEgdeY</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwia2OLG1aODAxWhQkgAHbxiAG0YABALGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMImtjixtWjgwMVoUJIAB28YgBtEAQYBiABEgJonPD_BwE&amp;sig=AOD64_0Aw3QuDRbz7iLIlWkjnIqSgbZ4VA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjey97G1aODAxUns5UCHdU8A0cQww8Itgs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwia2OLG1aODAxWhQkgAHbxiAG0YABANGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMImtjixtWjgwMVoUJIAB28YgBtEAQYByABEgKe7PD_BwE&amp;sig=AOD64_3BISNWqs64Mp7pjLPViu1Rx6aSyA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjey97G1aODAxUns5UCHdU8A0cQww8Iuws&amp;adurl=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,18 +231,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +288,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -221,6 +322,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,9 +357,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,14 +533,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -456,38 +562,127 @@
         <v>5679.06</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
+        <v>7543.8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>7900</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>7900</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7900</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>8099</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>8199</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8199</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>8369.1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="105.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,46 +693,135 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>2419.99</v>
+        <v>2414.25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B3">
+        <v>2419.9899999999998</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>2419.9899999999998</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>2499.9899999999998</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>2599.9899999999998</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>2599.9899999999998</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>2599.9899999999998</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
         <v>2881.79</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>2899.99</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="76" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,32 +832,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>8952.74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>10269.5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>10499</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Search_Results_Google_Shopping.xlsx
+++ b/Search_Results_Google_Shopping.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0372639560d1acb6/Trabalho/Python/GitHub Desktop/Shopping_Auto_Search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_B10D180E9152A4B628ED62F0375B123B4B3E6397" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1D7222A-2FB8-4307-993F-038F08355689}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_3BED7AF63D5321B1AADC2DF3EE1A602FD8C74A0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A92E026E-735B-4CAC-9270-E12A4DC365DA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="iphone 14 pro max 128 gb_Google" sheetId="1" r:id="rId1"/>
-    <sheet name="rtx 4060 ti_Google" sheetId="2" r:id="rId2"/>
-    <sheet name="macbook 16 gb_Google" sheetId="3" r:id="rId3"/>
+    <sheet name="iphone 15 pro max 256 gb_Google" sheetId="1" r:id="rId1"/>
+    <sheet name="rtx 4060 ti 16 gb_Google" sheetId="2" r:id="rId2"/>
+    <sheet name="macbook 16 gb m2_Google" sheetId="3" r:id="rId3"/>
+    <sheet name="ryzen 5800x3d_Google" sheetId="4" r:id="rId4"/>
+    <sheet name="logitech g733_Google" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="157">
   <si>
     <t>Product Name</t>
   </si>
@@ -33,127 +35,466 @@
     <t>Link</t>
   </si>
   <si>
-    <t>apple iphone 14 pro max 128gb 5g - vitrine - tela super retina xdr oled 6.7 ...</t>
-  </si>
-  <si>
-    <t>apple iphone 14 pro max 128gb roxo-profundo</t>
-  </si>
-  <si>
-    <t>apple iphone 14 pro max (128 gb) - roxo-profundo</t>
-  </si>
-  <si>
-    <t>apple iphone 14 pro max 128gb prateado</t>
-  </si>
-  <si>
-    <t>apple iphone 14 pro max 128gb dourado 5g tela 6,7" câm. traseira 48+12+12mp frontal 12mp</t>
-  </si>
-  <si>
-    <t>apple iphone 14 pro max (128 gb) – dourado</t>
-  </si>
-  <si>
-    <t>iphone 14 pro max 128gb prateado</t>
-  </si>
-  <si>
-    <t>apple iphone 14 pro max 128gb dourado 6,7 48mp, 128gb, dourado, iphone</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.horizonplay.com.br/apple/iphone-de-vitrine/apple-iphone-14-pro-max-128gb-5g-vitrine-tela-super-retina-xdr-oled-6-7%3Fvariant_id%3D22439%26parceiro%3D8926%26srsltid%3DAfmBOoqPussFxSh1eLodHBMrx-G5uYeWYme7F9UYkea3bwSNUZ5r0bg0jtw&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQgOUECOkL&amp;usg=AOvVaw3HLq8h2FwrQfU8dLW8Eory</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje-6a81aODAxV3U0gAHUIvA7MYABAPGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3vumvNWjgwMVd1NIAB1CLwOzEAQYCCABEgJkLPD_BwE&amp;sig=AOD64_2cPZrpxSNKUJzCgyOeK4gLZ1-mIg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQww8Iygs&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje-6a81aODAxV3U0gAHUIvA7MYABALGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3vumvNWjgwMVd1NIAB1CLwOzEAQYBiABEgI6TvD_BwE&amp;sig=AOD64_0TwDaHgWatqn-fYlhZLQLzLJ-Ghg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQww8Iwgs&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje-6a81aODAxV3U0gAHUIvA7MYABARGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3vumvNWjgwMVd1NIAB1CLwOzEAQYCSABEgLEgfD_BwE&amp;sig=AOD64_3Jwyw5_TL6bBQDqnTArBV48498VQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQww8IzQs&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje-6a81aODAxV3U0gAHUIvA7MYABAdGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3vumvNWjgwMVd1NIAB1CLwOzEAsYAyABEgLu_vD_BwE&amp;sig=AOD64_1afNHNzON83V0ntZFG01SM6X9hQw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQ9A4I5xM&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje-6a81aODAxV3U0gAHUIvA7MYABABGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3vumvNWjgwMVd1NIAB1CLwOzEAQYASABEgK4X_D_BwE&amp;sig=AOD64_3_LBq_VItFZWoC75gTFbmMiu0JhA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQww8Irgs&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje-6a81aODAxV3U0gAHUIvA7MYABADGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3vumvNWjgwMVd1NIAB1CLwOzEAQYAiABEgJ9k_D_BwE&amp;sig=AOD64_0dbvBW3qdWFo1-1MXUrM7zyhF_rA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQww8Isgs&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje-6a81aODAxV3U0gAHUIvA7MYABAFGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3vumvNWjgwMVd1NIAB1CLwOzEAQYAyABEgJk8PD_BwE&amp;sig=AOD64_3CYz6uPI-9oncUvrJWB-mhKAtSjA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQww8Itgs&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje-6a81aODAxV3U0gAHUIvA7MYABAJGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI3vumvNWjgwMVd1NIAB1CLwOzEAQYBSABEgKSCfD_BwE&amp;sig=AOD64_0_oEMBJoB7RRUaDJ12pckztK7n1A&amp;ctype=46&amp;q=&amp;nis=4&amp;ved=0ahUKEwipm6K81aODAxXbqJUCHSibAycQqygIvgs&amp;adurl=</t>
-  </si>
-  <si>
-    <t>placa gráfica geforce-rtx 4060ti, placa de vídeo, x3w, oc, 8gb, 128bit, gddr6 ...</t>
-  </si>
-  <si>
-    <t>placa de vídeo rtx 4060 ti ventus 2x black 8g oc msi nvidia geforce, 8gb gddr6, dlss, ray tracing, g-sync</t>
-  </si>
-  <si>
-    <t>placa de vídeo rtx 4060 ti ventus 2x black 8g oc msi nvidia geforce, 8</t>
-  </si>
-  <si>
-    <t>placa de vídeo rtx 4060 ti click oc galax nvidia geforce, 8 gb gddr6, dlss, ray tracing - 46isl8md8coc</t>
-  </si>
-  <si>
-    <t>placa de vídeo rtx 4060 ti ex galax nvidia geforce, 8 gb gddr6, dlss, ray tracing - 46isl8md8aex</t>
-  </si>
-  <si>
-    <t>placa de video galax geforce rtx 4060 ti ex 1-click oc, 8gb, gddr6, 128-bit, 46isl8md8aex</t>
-  </si>
-  <si>
-    <t>placa de video galax geforce rtx 4060 ti 1-click oc, 8gb, gddr6, 128-bit, 46isl8md8coc</t>
-  </si>
-  <si>
-    <t>placa de vídeo gigabite nvidia geforce rtx 4060 ti eagle oc 8gb gddr6</t>
-  </si>
-  <si>
-    <t>placa de vídeo rtx 4060 ti oc edition asus tuf gaming nvidia geforce, 8 gb gddr6, argb, dlss - tuf-rtx4060ti-o8g-gaming</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005006000031260.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8QgOUECMgV&amp;usg=AOvVaw3krcSHVQJQSEv13L8O9OGt</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiSvuzB1aODAxU8N60GHZl1AIkYABADGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMIkr7swdWjgwMVPDetBh2ZdQCJEAQYAiABEgICDPD_BwE&amp;sig=AOD64_0dloao4JS9_i9wI0Dt_tftUqpz4A&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8Qww8Ixw0&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiSvuzB1aODAxU8N60GHZl1AIkYABANGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMIkr7swdWjgwMVPDetBh2ZdQCJEAQYByABEgJpa_D_BwE&amp;sig=AOD64_38NQuiY1gQ-kTS7nORz2V7s1R5GQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8Qww8I2w0&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiSvuzB1aODAxU8N60GHZl1AIkYABAFGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMIkr7swdWjgwMVPDetBh2ZdQCJEAQYAyABEgKVtvD_BwE&amp;sig=AOD64_0mVIS8l-p5WPkUJgW6k0lIdf80vw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8Qww8Iyw0&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiSvuzB1aODAxU8N60GHZl1AIkYABAJGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMIkr7swdWjgwMVPDetBh2ZdQCJEAQYBSABEgJt_fD_BwE&amp;sig=AOD64_2WfDrTvyU0HDSUKKWS3N72KA4Ydw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8Qww8I0w0&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiSvuzB1aODAxU8N60GHZl1AIkYABALGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMIkr7swdWjgwMVPDetBh2ZdQCJEAQYBiABEgIPKPD_BwE&amp;sig=AOD64_20TfcUorgXaeWctbI2-a1-FStgFg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8Qww8I1w0&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiSvuzB1aODAxU8N60GHZl1AIkYABAPGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMIkr7swdWjgwMVPDetBh2ZdQCJEAQYCCABEgKYQfD_BwE&amp;sig=AOD64_0ZZALbMhap07VIaR7UMZV688-XBw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8Qww8I3g0&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005556102900.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8QguUECO4P&amp;usg=AOvVaw0hIGsgA2jiUfnEgs3XWLNN</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiSvuzB1aODAxU8N60GHZl1AIkYABAHGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMIkr7swdWjgwMVPDetBh2ZdQCJEAQYBCABEgJQCfD_BwE&amp;sig=AOD64_1vHLoKnM69xPY49v0UFo48VBOXDQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjvpOPB1aODAxU6q5UCHTESAC8Qww8Izw0&amp;adurl=</t>
-  </si>
-  <si>
-    <t>laptop macbook air 2022 com chip m2: tela retina líquida de 13,6 polegadas, 16gb ...</t>
+    <t>apple iphone 15 pro max 5g - 256gb</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256gb branco</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max 256gb- preto, , color preto</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256gb titânio preto</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256gb white titanium</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256gb blue titanium</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256gb natural titanium</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256gb black titanium</t>
+  </si>
+  <si>
+    <t>smartphone apple iphone 15 pro max 256gb black titanium</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max (256 gb) - titânio preto</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256gb iphone 15 pro max - titânio preto</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max de 256gb - titânio preto</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256gb</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256 gb -titânio preto</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256 gb -titânio azul</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256 gb -titânio branco</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256 gb -titânio natural</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max (256gb) titânio natural</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max (256gb) titânio branco</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max (256gb) titânio azul</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max apple (256gb) titânio azul, tela de 6,7 pol, 5g e câmera de 48mp</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max apple (256gb) titânio preto, tela de 6,7 pol, 5g e câmera de 48mp</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256gb 6,7 pol e-sim 5g modelo americano</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max 256gb tela de 6.7 xdr 48mp ultra- angular chip a17</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max (256 gb) - titânio branco</t>
+  </si>
+  <si>
+    <t>smartphone iphone 15 pro max 256gb, câmera de 48mp, rede 5g e-sim, titânio ...</t>
+  </si>
+  <si>
+    <t>smartphone iphone 15 pro max 256gb, câmera de 48mp, rede 5g e-sim, titânio preto ...</t>
+  </si>
+  <si>
+    <t>apple celular | iphone 15 pro max 256gb</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max 256gb titânio preto</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max 256gb titânio branco</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max 256gb titânio natural</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max 256gb titânio azul</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max 256gb esim apple</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max (256 gb) — titânio preto</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256 gb titânio branco</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max (256 gb) — titânio natural</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256 gb titânio azul</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max (256 gb) — titânio azul</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256gb titânio azul 6,7" 48mp ios 5g, 256gb, ti</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256gb titânio preto 6,7" 48mp ios 5g, 256gb, t</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max, titânio natural / 256gb</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256gb preto + capa +carregador</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://shopbetter24.com.br/shop/product/smartphone-apple-iphone-15-pro-max-6-7-256-gb-black_763235%3Faff_t%3Dgmc%26srsltid%3DAfmBOopI4DTNmS7a1tFCROudQwIx7gogJUFTtuBUX6cNzvfnkRZUty695W0&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQguUECLIS&amp;usg=AOvVaw2PpS-2kcai1im6MqlKvWpS</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://wantimport.com/produto/iphone-15-pro-max/%3Fattribute_pa_gb%3D256-gb%26attribute_pa_cor%3Dtitanio-branco%26srsltid%3DAfmBOoo08iLRFlF_DrMKRDlhQxAicqQMAO6AtSQnyeiobA_bp03tyeNV-_s&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQguUECIQQ&amp;usg=AOvVaw1Gt_1n5Qb8SvlqE0m1HuCw</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.trackerstore.com.br/MLB-3489196821-iphone-15-pro-max-256gb-_JM%3Fvariation%3D180378057083%26srsltid%3DAfmBOopRFl6rSt81hZVXI4LVcAH82w37rVX9wkWvyrYsOWPzOMJYv1pPG3k&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECOcN&amp;usg=AOvVaw0665gEOrrIeKFbIXu3AkER</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.dhrcomercio.com.br/MLB-3497305763-apple-iphone-15-pro-max-256-gb-dual-esim-_JM%3Fvariation%3D180471530697%26srsltid%3DAfmBOopEAHQuTxKJ2nQxN83x7dNs56Z8LMaFSxNZeMGLIlcjxSMeGThuvv4&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQguUECJYN&amp;usg=AOvVaw05LOlSNc-XxV-mlz4C-3OY</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.importadorausabrasil.com.br/produtos/apple-iphone-15-pro-max-256gb-white-titanium/&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECO8Q&amp;usg=AOvVaw3L1G5nWyw8N2DZnXDx2-6T</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.importadorausabrasil.com.br/produtos/apple-iphone-15-pro-max-256gb-blue-titanium/&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECOMP&amp;usg=AOvVaw2hQH8b_sdGSeEzTYxnRC-a</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.importadorausabrasil.com.br/produtos/apple-iphone-15-pro-max-256gb-natural-titanium/&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECL4R&amp;usg=AOvVaw32mV1wmivltG2_dYxoIdNi</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.importadorausabrasil.com.br/produtos/apple-iphone-15-pro-max-256gb-black-titanium/&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECO0R&amp;usg=AOvVaw1MLjWcK94Yavxoq33vSJUr</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.performancesolutions.com.br/smartphone-apple-iphone-15-pro-max-256gb-black-titanium%3Futm_source%3DSite%26utm_medium%3DGoogleMerchant%26utm_campaign%3DGoogleMerchant&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECPcN&amp;usg=AOvVaw2LEO4NrnAFZXTxlIoJb_0N</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABAbGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYDiABEgKwzPD_BwE&amp;sig=AOD64_1vRvi009lvVl2Ltmd33qtZ5bASMQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8I3As&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://lojaeurekashopping.com/products/iphone-15-pro-max%3Fvariant%3D47578984218937%26currency%3DBRL%26utm_medium%3Dproduct_sync%26utm_source%3Dgoogle%26utm_content%3Dsag_organic%26utm_campaign%3Dsag_organic%26srsltid%3DAfmBOooeYhT7DmycmYST6e8tERPO4MBmblnJ3awqh8jDmdvf590jSfKYmKQ&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECOYO&amp;usg=AOvVaw1tzB1vXJvOFXrIu3dmrur4</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/apple-iphone-15-pro-256-gb-titnio-preto/p/MLB27172701%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQguUECMEM&amp;usg=AOvVaw2fxxajTiegGVPnMabcRmpd</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABApGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYFSABEgIlIPD_BwE&amp;sig=AOD64_0I08vLAqTinqFWH4rdo4r35oYNbg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8I9As&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABBBGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYISABEgIG8fD_BwE&amp;sig=AOD64_2yXkG3xhX8MpgLNA4kdkz4amExQA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8Ioww&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABAhGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYESABEgKppvD_BwE&amp;sig=AOD64_3Aba4nU4dv1yy82Dji_M1eruY5Fw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8I6As&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABBZGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAsYCSABEgK9KvD_BwE&amp;sig=AOD64_0pvJWavPCSJhHq3IpD-L9BoOF6dQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQ9A4IzRQ&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABBPGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAsYBCABEgKSxfD_BwE&amp;sig=AOD64_0jahUaezaVOBz_biIH9geWnmiqiA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQ9A4IuBQ&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABBbGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAsYCiABEgKH3fD_BwE&amp;sig=AOD64_25KLVFDv58qOPFhWdILFiXIkhanw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQ9A4I0BQ&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABA_GgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYICABEgJQNvD_BwE&amp;sig=AOD64_0mJTk6K867G_QkYIpwQJ-9cj8iPg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8IoAw&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.espacomiami.com/iphone-15-pro-max-256gb-titanio-natural&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECNEQ&amp;usg=AOvVaw3XJ4R1iTzD2ZVLENZR_dQo</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.espacomiami.com/iphone-15-pro-max-256gb-titanio-branco&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECN4R&amp;usg=AOvVaw3DS5tU6zvgdDr4POem_G0c</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.espacomiami.com/iphone-15-pro-max-256gb-titanio-azul&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECLAR&amp;usg=AOvVaw2JU4A5dK6MaWWkF7nPoL9p</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.carrefour.com.br/iphone-15-pro-max-apple-256gb-titanio-azul-tela-de-67-pol-5g-e-camera-de-48mp-mp935319687/p&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECIUN&amp;usg=AOvVaw3eIUY66wcNzn7KYK2UHYI0</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABAlGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYEyABEgJQ3fD_BwE&amp;sig=AOD64_0mUBm-HGofJBnsx7f5jSNmlYWPCg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8I7gs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABAFGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYAyABEgKwM_D_BwE&amp;sig=AOD64_3pIgrgQCop339YBRIAm2sPaeLhRQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8Isws&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABAXGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYDCABEgIa_fD_BwE&amp;sig=AOD64_0eS9IyEX4eohaIPNWi6HTtgQz1QQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8I1Qs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABAjGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYEiABEgK_K_D_BwE&amp;sig=AOD64_0rbqf1s2d2LB7a_XtnCyzni_LTvQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8I6ws&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.carrefour.com.br/apple-iphone-15-pro-max-256gb-67-pol-esim-5g-modelo-americano-mp935179191/p&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECJgO&amp;usg=AOvVaw02f9Vehj01ZOEeDS0ZnEnx</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.balbinoshop.com.br/produto/iphone-15-pro-max-256gb-tela-de-6-7-xdr-48mp-ultra-angular-chip-a17-72800%3Futm_source%3D%26utm_medium%3D%26utm_campaign%3D&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECKUP&amp;usg=AOvVaw1RLRQOoQc7sl1aUwUpLEXi</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABBXGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAsYCCABEgI8GvD_BwE&amp;sig=AOD64_0RfY8V7pzs3eyE-Zcjo49K3bnskw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQ9A4IyRQ&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.xongeek.com.br/smartphone-iphone-15-pro-max-256gb-camera-de-48mp-rede-5g-titanio-natural-apple&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECMIQ&amp;usg=AOvVaw2vhl3DwmG7v3z3jLUt-P4B</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.xongeek.com.br/smartphone-iphone-15-pro-max-256gb-camera-de-48mp-rede-5g-titanio-preto-apple&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECMUP&amp;usg=AOvVaw0pc4TiChRMQoTxd9aMmkfj</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.enjoei.com.br/p/iphone-15-pro-max-256gb-94242946%3Fg_campaign%3Dgoogle_shopping%26srsltid%3DAfmBOoqbY2HVu-4eQ2qtPThG7w_R5o9wu7kjyazedb8DEQsTnjG66Lvxvns&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECLIQ&amp;usg=AOvVaw0bMkWLilleB-9DnTXGgnDH</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://malibushop.com.br/produto/iphone-15-pro-max-256gb-titanio-preto/%3Fsrsltid%3DAfmBOoqfPkqur866Uwt3eMNm5gHPYwnTlTwc0jK_ZYMv38Max0MmaPo-RH0&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECMcN&amp;usg=AOvVaw2H38R41zoQr9ZnX8AtcZiI</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://malibushop.com.br/produto/iphone-15-pro-max-256gb-titanio-branco/%3Fsrsltid%3DAfmBOooCd-Bj_HOZmMyufQm9lvwJTFiRYRhwBYfIv9_uF8d4OIYScFYjh-o&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECLgO&amp;usg=AOvVaw2DIDhoyHJyVePPOIHNk9Ur</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://malibushop.com.br/produto/iphone-15-pro-max-256gb-titanio-natural/%3Fsrsltid%3DAfmBOor_CpuErW_nB9eXeDe_IIRh1U0YUCboo8-H59bRDPRB5IWS4lE2y-w&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECPYO&amp;usg=AOvVaw2uhigwCpBIcLjQbC7eNqyR</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://malibushop.com.br/produto/iphone-15-pro-max-256gb-titanio-azul/%3Fsrsltid%3DAfmBOoqJa3N0xABbZQU766jId36YYQk2gbk1fEjnVeW28WoZHxvSQiGhFN4&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECLUP&amp;usg=AOvVaw0r_XguPsL0QbdktZF_QEg3</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://produto.mercadolivre.com.br/MLB-4238007368-iphone-15-pro-max-256gb-esim-_JM%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECNQP&amp;usg=AOvVaw3XTA_LQB8DOUaloyVl48Fq</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.amazon.com.br/Apple-iPhone-Pro-Max-256/dp/B0CHX5JW65%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA1ZZFT5FULY4LN&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQguUECNIM&amp;usg=AOvVaw0Yo1ez1V9tYJmzO9WGpJmJ</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABARGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYCSABEgIZkPD_BwE&amp;sig=AOD64_1aCM48r_D8k4dlU0_2y3r57rwxIQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8Iygs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABATGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYCiABEgJANvD_BwE&amp;sig=AOD64_0MFedgIwmJXgBDsFdRWhAGbA4mOQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8Izgs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABAtGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYFyABEgJ5bPD_BwE&amp;sig=AOD64_2yjrJ2EkWhiiZjRGPRTkmVepYaGg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8I_As&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABA5GgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYHSABEgKe0vD_BwE&amp;sig=AOD64_1BkrryjP4esyhRxJkD-T1rLNF3-g&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8IlQw&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABBVGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAsYByABEgJx4PD_BwE&amp;sig=AOD64_39GbbBPZgqbsz75UBLdkwFWMslkQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQ9A4IxBQ&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABA9GgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYHyABEgI00_D_BwE&amp;sig=AOD64_2nITk8dLDEXm5PMxX45y1z_DpGaQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8InAw&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABBDGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYIiABEgLeLfD_BwE&amp;sig=AOD64_3YdQL2YHLiDPbg5CsyhYvCYeA98w&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8Ipgw&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABBFGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYIyABEgKCGfD_BwE&amp;sig=AOD64_0T3s3QIzo2HkJFwIHHVJ3WSJLS-A&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8Iqww&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABBHGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYJCABEgJfY_D_BwE&amp;sig=AOD64_25DqRuqDwZp7DXWSTrCEeVQGaO9A&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8Irww&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABBRGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAsYBSABEgKcwvD_BwE&amp;sig=AOD64_0u8jNDt7ql9ZeYSQMFL_OuyVtf6w&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQ9A4IuxQ&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABBTGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAsYBiABEgJBKPD_BwE&amp;sig=AOD64_3fFF6btARRlc-g9DAZEDdLb-sc1A&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQ9A4IwBQ&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABA1GgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYGyABEgJrSvD_BwE&amp;sig=AOD64_0P6iNeRsvR2tntOWEPK99u6ZImNg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8IjAw&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABBdGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAsYCyABEgICCfD_BwE&amp;sig=AOD64_1OGnyHFtIZFx4vKeQ-av0ZEZQ6eA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQ9A4I0xQ&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABABGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYASABEgKqpfD_BwE&amp;sig=AOD64_0sQjtvtCaZC79JHTejsqRC4Go9PA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQww8Iqws&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABAdGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYDyABEgKzk_D_BwE&amp;sig=AOD64_1fzYWs8IJrhQXvszh4iO8NkacLlw&amp;ctype=46&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQqygI4As&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjmq-3o0a2DAxXjX0gAHbAaAgQYABALGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI5qvt6NGtgwMV419IAB2wGgIEEAQYBiABEgLpq_D_BwE&amp;sig=AOD64_1zDCdTcOggFrO1sKUyTSgsmtQ51w&amp;ctype=46&amp;q=&amp;nis=4&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQqygIvgs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://findtech.store/products/iphone-pro-max%3Fcurrency%3DBRL%26variant%3D47582973821228%26utm_medium%3Dcpc%26utm_source%3Dgoogle%26utm_campaign%3DGoogle%2520Shopping%26stkn%3D22a36cef00e2%26srsltid%3DAfmBOoqmBuN5MjqwARMy_2XxSjmI9xizQ_Qx_gOhuKhxk90pUnOeC9aWSOk&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECJET&amp;usg=AOvVaw2ADcm1l_5IyyOemyspidMN</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://produto.mercadolivre.com.br/MLB-3506698811-apple-iphone-15-pro-max-256gb-preto-capa-carregador-_JM%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi22efo0a2DAxUlrJUCHR64AEsQgOUECIYP&amp;usg=AOvVaw1IXdNF9kReTnaVt10mhgAM</t>
+  </si>
+  <si>
+    <t>gigabyte placa gráfica rtx 4060 ti windforce oc 16gb gddr6 prateado</t>
+  </si>
+  <si>
+    <t>placa de vídeo rtx 4060 ti twin x2 oc inno3d nvidia geforce, 16gb gddr</t>
+  </si>
+  <si>
+    <t>placa de vídeo rtx 4060 ti gaming x slim 16g msi nvidia geforce, 16gb gddr6, g-sync, hdr, dlss, ray trancing</t>
+  </si>
+  <si>
+    <t>placa de vídeo galax geforce rtx 4060 ti ex (1-click oc), 16gb gddr6,</t>
+  </si>
+  <si>
+    <t>placa de vídeo asus proart geforce rtx 4060 ti oc 16gb gddr6</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://shopbetter24.com.br/shop/product/graphics-card-gigabyte-gv-n406twf2oc-16gd-geforce-rtx-4060-ti_770582%3Faff_t%3Dgmc%26srsltid%3DAfmBOoprXMIoCBCkL1hRKCP_EQV-pzbT4lyfv5R_JFzdAhYOnf3zylBW9Zw&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwib7bnw0a2DAxXQqZUCHYNlCagQguUECIYQ&amp;usg=AOvVaw1BlszG9Aycm7edPqrIBD7j</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-rtx-4060-ti-twin-x2-oc-inno3d-nvidia-geforce-16gb-gddr6-dual-fan-dlss-ray-tracing-g-sync-n406t2-16d6x-178055n/p/be55g4cgh5/in/pcvd/%3Fseller_id%3Dkabum%26srsltid%3DAfmBOor-nYRMki5pA5LY9Ct_SE1dlmoPas9tOG3Y5mbxuxdDdmCaKVkuCxw&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwib7bnw0a2DAxXQqZUCHYNlCagQguUECKUN&amp;usg=AOvVaw17j_-BnVKY9PNvOkuK-CXs</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjczsPw0a2DAxWmMK0GHbNbDu4YABATGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMI3M7D8NGtgwMVpjCtBh2zWw7uEAQYCiABEgJmnPD_BwE&amp;sig=AOD64_24GiZsqTclAuMrIp9BWuTpDayHQw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwib7bnw0a2DAxXQqZUCHYNlCagQww8IuQw&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-galax-geforce-rtx-4060-ti-ex-1-click-oc-16gb-gddr6-128-bit-46izl8md8yex-nac%3Fsrsltid%3DAfmBOopAEAkc5m7ks_KLCooh7UD1OK_ihRLp4p89X4fRAPVJopQcPeayFnI&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwib7bnw0a2DAxXQqZUCHYNlCagQguUECIMN&amp;usg=AOvVaw1HVYfHK_86UlMhKj4f4eEc</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.ebay.com/itm/374972023686%3Fchn%3Dps%26mkevt%3D1%26mkcid%3D28&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwib7bnw0a2DAxXQqZUCHYNlCagQgOUECI0T&amp;usg=AOvVaw0-Ym98dZ9qTz63jJsu_tIJ</t>
+  </si>
+  <si>
+    <t>apple recondicionado macbook pro 13 m2/16gb/256gb ssd transparente spanish qwerty</t>
+  </si>
+  <si>
+    <t>apple computador portátil macbook air 13 m2/16gb/256gb ssd cinzento spanish ...</t>
+  </si>
+  <si>
+    <t>apple computador portátil macbook air 15.3 m2 8cpu 10gpu/16gb/256gb ssd azul ...</t>
+  </si>
+  <si>
+    <t>apple computador portátil macbook air 13 m2/16gb/512gb ssd preto spanish qwerty</t>
   </si>
   <si>
     <t>macbook air 13.6 m2 256gb 16 ram z15s000ct c/ apple</t>
   </si>
   <si>
-    <t>macbook pro mkgp3/m1/16gb ram/ 512gb ssd/ 14,2 (2021) apple</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005544178685.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjey97G1aODAxUns5UCHdU8A0cQgOUECLES&amp;usg=AOvVaw3QHk1LsK2hNu6-mfJEgdeY</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwia2OLG1aODAxWhQkgAHbxiAG0YABALGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMImtjixtWjgwMVoUJIAB28YgBtEAQYBiABEgJonPD_BwE&amp;sig=AOD64_0Aw3QuDRbz7iLIlWkjnIqSgbZ4VA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjey97G1aODAxUns5UCHdU8A0cQww8Itgs&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwia2OLG1aODAxWhQkgAHbxiAG0YABANGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMImtjixtWjgwMVoUJIAB28YgBtEAQYByABEgKe7PD_BwE&amp;sig=AOD64_3BISNWqs64Mp7pjLPViu1Rx6aSyA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjey97G1aODAxUns5UCHdU8A0cQww8Iuws&amp;adurl=</t>
+    <t>macbook air 13.6 m2 apple, 16gb ram 8core 256gb ssd lacrado</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-recondicionado-macbook-pro-13-m2-16gb-256gb-ssd/140548502/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D142032729%26country%3Dbr%26srsltid%3DAfmBOoqdeovJyKZhvRkq1dsrhlzwdyZfxYTtlKsFdDRpr_1ROYzrJi2mXys&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwicuNX10a2DAxVsrpUCHaHtA3oQgOUECNUP&amp;usg=AOvVaw33NaKJl7rgVpqWlqnQWsYL</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-computador-portatil-macbook-air-13-m2-16gb-256gb-ssd/139943616/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D139788373%26country%3Dbr%26srsltid%3DAfmBOor6DFiT0N8NIbM88cjWYVQ6APrpnhy23ISiCNogpw0-fuNA-62L42w&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwicuNX10a2DAxVsrpUCHaHtA3oQgOUECOMM&amp;usg=AOvVaw3L-LcR0KacQVTUXiNxz1dU</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-computador-portatil-macbook-air-13-m2-16gb-256gb-ssd/139943615/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D139788372%26country%3Dbr%26srsltid%3DAfmBOoo1wncbNBguuJk-Nnko7HGY-yKrxiILRMOZ6VsJ8-8dceOvJ9sjOOU&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwicuNX10a2DAxVsrpUCHaHtA3oQgOUECPEN&amp;usg=AOvVaw2wzwmz-_nteqz6LRKFoQbc</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-computador-portatil-macbook-air-15.3-m2-8cpu-10gpu-16gb-256gb-ssd/140423935/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D141465330%26country%3Dbr%26srsltid%3DAfmBOoqwOVtTjDyuZpn-KNtX_jumpvm0NrPC9wweN_aZgTRhrUo3IevMGxU&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwicuNX10a2DAxVsrpUCHaHtA3oQguUECJgS&amp;usg=AOvVaw3gw73FJb3vW3fFtalruO5R</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-computador-portatil-macbook-air-13-m2-16gb-512gb-ssd/139943617/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D139788374%26country%3Dbr%26srsltid%3DAfmBOop_DNecyTvUS9VuF33g8Xu6gaO1y-boUP_NErj1htWRrQ8hOUTvVZI&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwicuNX10a2DAxVsrpUCHaHtA3oQgOUECIMN&amp;usg=AOvVaw2m7jTLauxRQill4sUbANSL</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiu5tn10a2DAxWjWUgAHWtwAAsYABADGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMIrubZ9dGtgwMVo1lIAB1rcAALEAQYAiABEgJl5_D_BwE&amp;sig=AOD64_2VAay04h0CLIN7Cnr0XDWIWF3blw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwicuNX10a2DAxVsrpUCHaHtA3oQww8I_wo&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/macbook-air-136-m2-256gb-16-ram-z15s000ct-c/p/MLB24743040%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwicuNX10a2DAxVsrpUCHaHtA3oQgOUECNIQ&amp;usg=AOvVaw1jibWsjPeUw9AuultCFy4l</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://produto.mercadolivre.com.br/MLB-4294937876-macbook-air-136-m2-apple-16gb-ram-8core-256gb-ssd-lacrado-_JM%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwicuNX10a2DAxVsrpUCHaHtA3oQgOUECKYP&amp;usg=AOvVaw36NMMTBsmNMRFD6CQ6Mq5O</t>
+  </si>
+  <si>
+    <t>processador amd ryzen 7 5800x3d, 3.4ghz (4.5ghz max turbo), cache 100mb, am4, sem vídeo - 100-100000651wof</t>
+  </si>
+  <si>
+    <t>processador amd ryzen 7 5800x3d box am4 4.5ghz 100mb cache s/ cooler s/ vídeo - 100-100000651wof</t>
+  </si>
+  <si>
+    <t>processador amd am4 ryzen r7-5800x3d 4.5ghz/100mb/3.4ghz base grafico nao ...</t>
+  </si>
+  <si>
+    <t>processador amd zen 3 ryzen 7 5800x3d 8cores 4.5ghz 105w socket am4</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwio3eX60a2DAxUnQUgAHQOiB14YABADGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMIqN3l-tGtgwMVJ0FIAB0DogdeEAQYAiABEgKwv_D_BwE&amp;sig=AOD64_2WYc8pEiq_TrPh8mt1K_HiGCzfCQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjWvOH60a2DAxWFkpUCHbkTASQQww8Iuwk&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwio3eX60a2DAxUnQUgAHQOiB14YABAFGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMIqN3l-tGtgwMVJ0FIAB0DogdeEAQYAyABEgIEYfD_BwE&amp;sig=AOD64_3R8ISPQkDCbZQgq_nKxXXAD3L7cw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjWvOH60a2DAxWFkpUCHbkTASQQww8Ivgk&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.biostechconecta.com.br/produto/processador-amd-am4-ryzen-r7-5800x3d-45ghz100mb34ghz-base-grafico-nao-integrado-s-cooler.html%3Fsrsltid%3DAfmBOorWjbEXpuQgnQ8MCdMtfrhZoxIOUTIMtPduu1qUn_0ubyQMK0otaMQ&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjWvOH60a2DAxWFkpUCHbkTASQQgOUECOkO&amp;usg=AOvVaw0yPt8-QNAekFUuZlRKJFZt</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.fullinfoinformatica.com.br/processador-amd-zen-3-ryzen-7-5800x3d-8cores-45ghz-105w-socket-am4%3Fsrsltid%3DAfmBOoqKAM8kkett0lEb2dJQwtVVmadwEUyqnxTtB-wNfeceTHOiP4hn9EM&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjWvOH60a2DAxWFkpUCHbkTASQQgOUECOcN&amp;usg=AOvVaw0eY3-3W4VvU9iQTHeJmuPX</t>
+  </si>
+  <si>
+    <t>headset gamer logitech g733 wireless rgb league of legends kda gaming dts 7.1 ...</t>
+  </si>
+  <si>
+    <t>headset gamer sem fio logitech g733 7.1 dolby surround rgb lightsync, blue voice para pc e playstation, preto - 981-000863</t>
+  </si>
+  <si>
+    <t>headset gamer logitech g733 preto sem fio</t>
+  </si>
+  <si>
+    <t>fone de ouvido mic logitech gamer g733 dolby surround s/fio azul + faixa de ...</t>
+  </si>
+  <si>
+    <t>kit headset gamer sem fio logitech g733 lilás + fun mic covers</t>
+  </si>
+  <si>
+    <t>fone de ouvido mic logitech gamer g733 lightspeed s/fio azul + faixa de cabeça ...</t>
+  </si>
+  <si>
+    <t>kit headset gamer sem fio logitech g733 azul + fun mic covers</t>
+  </si>
+  <si>
+    <t># black november # fone sem fio logitech g733 rgb lightsync 7.1 dolby surround ...</t>
+  </si>
+  <si>
+    <t>headset gamer sem fio logitech g733 7.1 dolby surround com tecnologia blue vo!ce ...</t>
+  </si>
+  <si>
+    <t>headset gamer sem fio logitech g733 7.1 dolby surround com tecnologia blue vo!ce, rgb lightsync, drivers de áudio avançados e bateria recarregável</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.gkinfostore.com.br/headset-gamer-logitech-g733-wireless-rgb-league-of-legends-kda-gaming-dts-71-surround-com-blue-voice-azul-981-000989.html&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi8yYSA0q2DAxUkpZUCHRdxBWsQgOUECLQL&amp;usg=AOvVaw3qdI94n0O-3OCgi-mx8s9I</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi3iI6A0q2DAxWCD60GHQR9AnEYABAFGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMIt4iOgNKtgwMVgg-tBh0EfQJxEAsYAyABEgKbJPD_BwE&amp;sig=AOD64_3CiWfWPr-a_3sPYlUFm6Wqr1HXeg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi8yYSA0q2DAxUkpZUCHRdxBWsQ9A4I8xE&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/120487/headset-gamer-sem-fio-logitech-g733-7-1-dolby-surround-rgb-lightsync-blue-voice-para-pc-e-playstation-preto-981-000863%3Fsrsltid%3DAfmBOoqMbm4IpcWSVHtikUDzhaLNEHBy9zTZaJ-Oj_aP6jOTIHyqhaFpXLU&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi8yYSA0q2DAxUkpZUCHRdxBWsQguUECPgK&amp;usg=AOvVaw0Hbh6GDdaFKD46rXJicCDv</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/fone-de-ouvido-mic-logitech-gamer-g733-dolby-surround-s-fio-azul-faixa-de-cabeca-logitech-p-headset-g733-roxo%3Fsrsltid%3DAfmBOook64AdgfGkhST_969b04m8r39ZQVx-WoGrelfZdwu6TOHups4gL_s&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi8yYSA0q2DAxUkpZUCHRdxBWsQgOUECKYL&amp;usg=AOvVaw35cRg8xhkkIFsF1fQOErLI</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/fone-de-ouvido-mic-logitech-gamer-g733-lightspeed-s-fio-azul-faixa-de-cabeca-logitech-p-headset-g733-laranja%3Fsrsltid%3DAfmBOoobcfOuQxDj6x8Zlc-ZFGwq_ILZTdOL2zz4ymnh87XYuXJOoDNRafA&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi8yYSA0q2DAxUkpZUCHRdxBWsQgOUECNIL&amp;usg=AOvVaw2dcgGuRETY3LVraSj5KEAc</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/kit-headset-gamer-sem-fio-logitech-g733-lilas-fun-mic-covers%3Fsrsltid%3DAfmBOoon9lx4Tm9clcvHAciT7-MoMjsheRvwnFxdvT5ikfVdMrB0yguxijU&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi8yYSA0q2DAxUkpZUCHRdxBWsQgOUECP8L&amp;usg=AOvVaw3RgqblQN-n1C1zZwk67KaY</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/fone-de-ouvido-mic-logitech-gamer-g733-lightspeed-s-fio-azul-faixa-de-cabeca-logitech-p-headset-g733-g335-azul%3Fsrsltid%3DAfmBOoqYNFIoec113r-KwfqNo1XqtHMkI1Xqrk22P6bJNm7EqwsCLAk8b0Q&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi8yYSA0q2DAxUkpZUCHRdxBWsQgOUECIUN&amp;usg=AOvVaw0o2vQGnDOMLeXtW6qWk78k</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/kit-headset-gamer-sem-fio-logitech-g733-azul-fun-mic-covers%3Fsrsltid%3DAfmBOoqnq_fLCp168Z4mT6aIdI2H7W8P_bmQnF5APAnoI_rgK6GM6HZ8GCo&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi8yYSA0q2DAxUkpZUCHRdxBWsQgOUECIYO&amp;usg=AOvVaw0Z9__3KiWi294OS7xixQ7u</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/fone-de-ouvido-mic-logitech-gamer-g733-lightspeed-s-fio-azul-faixa-de-cabeca-logitech-p-headset-g733-g335-lilas%3Fsrsltid%3DAfmBOopC-U8alPEoCLIiM8fw1nfg73btfFAqOn0ldoXyvtqbzuIs_DEj-bA&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi8yYSA0q2DAxUkpZUCHRdxBWsQgOUECJQO&amp;usg=AOvVaw3TWLIBR-XsongoERJxeYjn</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.progaming.com.br/fone-sem-fio-logitech-g733-rgb-lightsync-7-1-dolby-surround-com-blue-voice-branco-981-000882-p4205&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi8yYSA0q2DAxUkpZUCHRdxBWsQgOUECLwQ&amp;usg=AOvVaw2LSJdYlb6rPAX1BoUdhw1f</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.progaming.com.br/promocao-fone-sem-fio-logitech-g733-rgb-lightsync-7-1-dolby-surround-com-blue-voice-lilas-981-000889-p3995&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi8yYSA0q2DAxUkpZUCHRdxBWsQgOUECMcR&amp;usg=AOvVaw1lUkJ_nXVDSeBCEpRYzEqK</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.amazon.com.br/Logitech-Tecnologia-LIGHTSYNC-Recarreg%25C3%25A1vel-Playstation/dp/B084TFWTH5%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA1ZZFT5FULY4LN&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi8yYSA0q2DAxUkpZUCHRdxBWsQguUECOcK&amp;usg=AOvVaw24lHmVM0EyZaop9xAQc-w7</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi3iI6A0q2DAxWCD60GHQR9AnEYABABGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMIt4iOgNKtgwMVgg-tBh0EfQJxEAsYASABEgJqOPD_BwE&amp;sig=AOD64_2QrN7qAn1m17SyG2pkkKjjzSxflg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi8yYSA0q2DAxUkpZUCHRdxBWsQ9A4I6xE&amp;adurl=</t>
   </si>
 </sst>
 </file>
@@ -534,14 +875,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="83.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -559,10 +897,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5679.06</v>
+        <v>8089.54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -570,10 +908,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>7543.8</v>
+        <v>8174.51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,10 +919,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>7900</v>
+        <v>8290</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -592,65 +930,593 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>7900</v>
+        <v>8345.2199999999993</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>7900</v>
+        <v>8399</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>8099</v>
+        <v>8399</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>8199</v>
+        <v>8399</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>8199</v>
+        <v>8399</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>8369.1</v>
+        <v>8482.49</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>8490</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>8499.99</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>8616.5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>8699</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>8699.99</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>8699.99</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>8699.99</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>8699.99</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
+      </c>
+      <c r="B19">
+        <v>8699.99</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>8699.99</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>8711.1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>8711.1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>8711.1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8799</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>8799</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>8799</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>8899</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>8899</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>8899</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>8909.89</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>8999.99</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>9166.66</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>9166.66</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>9264</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>9339.65</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>9339.65</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>9339.65</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>9339.65</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>9399</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>9448.99</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>9448.99</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>9449</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>9449</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>9449</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>9449</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46">
+        <v>9449</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47">
+        <v>9449</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <v>9449</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49">
+        <v>9449</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>9449</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51">
+        <v>9449</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52">
+        <v>9449</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>9449</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54">
+        <v>9449.01</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55">
+        <v>9449.1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56">
+        <v>9449.1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57">
+        <v>9470</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58">
+        <v>9490</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -664,6 +1530,54 @@
     <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -671,15 +1585,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="105.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,101 +1609,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="B2">
-        <v>2414.25</v>
+        <v>2866.28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="B3">
-        <v>2419.9899999999998</v>
+        <v>3199.99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="B4">
-        <v>2419.9899999999998</v>
+        <v>3399.99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="B5">
-        <v>2499.9899999999998</v>
+        <v>3399.99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="B6">
-        <v>2599.9899999999998</v>
+        <v>3438.18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>2599.9899999999998</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>2599.9899999999998</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>2881.79</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>2899.99</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -799,10 +1669,6 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -810,15 +1676,135 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>7221.99</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3">
+        <v>8091.99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4">
+        <v>8091.99</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>8612.99</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6">
+        <v>9710.99</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7">
+        <v>10925</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8">
+        <v>10925</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9">
+        <v>10999</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="101.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,42 +1820,236 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="B2">
-        <v>8952.74</v>
+        <v>1988.99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="B3">
-        <v>10269.5</v>
+        <v>2004.21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="B4">
-        <v>10499</v>
+        <v>2498.2800000000002</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5">
+        <v>2499.9899999999998</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2">
+        <v>799</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3">
+        <v>829.99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4">
+        <v>829.99</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5">
+        <v>894.91</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6">
+        <v>894.91</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7">
+        <v>894.91</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8">
+        <v>894.91</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9">
+        <v>894.91</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10">
+        <v>894.91</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11">
+        <v>899.99</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12">
+        <v>899.99</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13">
+        <v>900</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14">
+        <v>915</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Search_Results_Google_Shopping.xlsx
+++ b/Search_Results_Google_Shopping.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0372639560d1acb6/Trabalho/Python/GitHub Desktop/Shopping_Auto_Search/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_E96874385B3BD59BCCEA19FB0E8777E9BE6DC0A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE4C9A00-98E7-450E-8CBA-57847797F237}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iphone 15 pro max 256_Google" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="ryzen 5800x3d_Google" sheetId="4" r:id="rId4"/>
     <sheet name="logitech g733_Google" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -446,8 +452,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,18 +524,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -567,7 +581,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -601,6 +615,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -635,9 +650,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -810,14 +826,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -839,7 +855,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -850,29 +866,29 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>8345.219999999999</v>
+        <v>8345.2199999999993</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>8345.219999999999</v>
+        <v>8345.2199999999993</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -883,7 +899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -894,7 +910,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -905,7 +921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -916,7 +932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -927,7 +943,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -938,7 +954,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -949,7 +965,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -960,7 +976,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -971,7 +987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -982,7 +998,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -993,7 +1009,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1004,7 +1020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1015,7 +1031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1042,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1037,7 +1053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1048,7 +1064,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1059,7 +1075,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1070,18 +1086,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>8909.889999999999</v>
+        <v>8909.89</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1092,7 +1108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1103,7 +1119,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1114,7 +1130,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1125,7 +1141,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1136,7 +1152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1147,7 +1163,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1158,7 +1174,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -1169,7 +1185,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1180,7 +1196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1191,7 +1207,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1202,7 +1218,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1213,7 +1229,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1224,7 +1240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1235,7 +1251,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1246,7 +1262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1257,7 +1273,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -1268,7 +1284,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -1279,7 +1295,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -1290,7 +1306,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -1303,63 +1319,68 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C19" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C21" r:id="rId20"/>
-    <hyperlink ref="C22" r:id="rId21"/>
-    <hyperlink ref="C23" r:id="rId22"/>
-    <hyperlink ref="C24" r:id="rId23"/>
-    <hyperlink ref="C25" r:id="rId24"/>
-    <hyperlink ref="C26" r:id="rId25"/>
-    <hyperlink ref="C27" r:id="rId26"/>
-    <hyperlink ref="C28" r:id="rId27"/>
-    <hyperlink ref="C29" r:id="rId28"/>
-    <hyperlink ref="C30" r:id="rId29"/>
-    <hyperlink ref="C31" r:id="rId30"/>
-    <hyperlink ref="C32" r:id="rId31"/>
-    <hyperlink ref="C33" r:id="rId32"/>
-    <hyperlink ref="C34" r:id="rId33"/>
-    <hyperlink ref="C35" r:id="rId34"/>
-    <hyperlink ref="C36" r:id="rId35"/>
-    <hyperlink ref="C37" r:id="rId36"/>
-    <hyperlink ref="C38" r:id="rId37"/>
-    <hyperlink ref="C39" r:id="rId38"/>
-    <hyperlink ref="C40" r:id="rId39"/>
-    <hyperlink ref="C41" r:id="rId40"/>
-    <hyperlink ref="C42" r:id="rId41"/>
-    <hyperlink ref="C43" r:id="rId42"/>
-    <hyperlink ref="C44" r:id="rId43"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="94.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -1381,7 +1402,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -1392,7 +1413,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1403,7 +1424,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -1414,7 +1435,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -1425,7 +1446,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -1436,7 +1457,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -1447,7 +1468,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -1460,28 +1481,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -1503,7 +1529,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -1514,7 +1540,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -1525,7 +1551,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -1536,7 +1562,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -1547,7 +1573,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -1558,7 +1584,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -1569,7 +1595,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -1582,28 +1608,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="101.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -1625,23 +1656,23 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
       <c r="B3">
-        <v>2498.28</v>
+        <v>2498.2800000000002</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
       <c r="B4">
-        <v>2499.99</v>
+        <v>2499.9899999999998</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>115</v>
@@ -1649,23 +1680,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="134.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1676,7 +1712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -1687,7 +1723,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -1698,7 +1734,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -1709,7 +1745,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -1720,7 +1756,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -1731,7 +1767,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -1742,7 +1778,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -1753,7 +1789,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -1764,7 +1800,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -1775,7 +1811,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -1786,7 +1822,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -1797,7 +1833,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -1808,7 +1844,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -1819,7 +1855,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -1832,20 +1868,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Search_Results_Google_Shopping.xlsx
+++ b/Search_Results_Google_Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0372639560d1acb6/Trabalho/Python/GitHub Desktop/Shopping_Auto_Search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_E96874385B3BD59BCCEA19FB0E8777E9BE6DC0A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE4C9A00-98E7-450E-8CBA-57847797F237}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_447C676084E801D086B6F0E384E7CB680A122020" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{849C825C-B5A4-4BC1-A15B-CC3A4D2C1DAC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iphone 15 pro max 256_Google" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="159">
   <si>
     <t>Product Name</t>
   </si>
@@ -35,244 +35,280 @@
     <t>Link</t>
   </si>
   <si>
-    <t>apple iphone 15 pro max 5g - 256gb</t>
-  </si>
-  <si>
-    <t>iphone 15 pro max 256gb- branco, , color branco</t>
+    <t>apple iphone 15 pro max 256gb branco</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max 256gb- preto, , color preto</t>
   </si>
   <si>
     <t>apple iphone 15 pro max (256 gb) - dual esim- branco, , color branco</t>
   </si>
   <si>
-    <t>apple iphone 15 pro max 256gb titânio natural</t>
-  </si>
-  <si>
     <t>apple iphone 15 pro max 256gb white titanium</t>
   </si>
   <si>
+    <t>apple iphone 15 pro max 256gb natural titanium</t>
+  </si>
+  <si>
     <t>apple iphone 15 pro max 256gb blue titanium</t>
   </si>
   <si>
     <t>apple iphone 15 pro max 256gb black titanium</t>
   </si>
   <si>
-    <t>apple iphone 15 pro max 256gb natural titanium</t>
-  </si>
-  <si>
     <t>smartphone apple iphone 15 pro max 256gb black titanium</t>
   </si>
   <si>
     <t>apple iphone 15 pro max (256 gb) - titânio preto</t>
   </si>
   <si>
-    <t>apple iphone 15 pro max 256gb iphone 15 pro max - titânio natural</t>
-  </si>
-  <si>
-    <t>apple iphone 15 pro max de 256gb - titânio preto</t>
+    <t>apple iphone 15 pro max 256gb iphone 15 pro max - titânio preto</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max 256gb 6,7 pol e-sim 5g modelo americano</t>
   </si>
   <si>
     <t>apple iphone 15 pro max 256gb</t>
   </si>
   <si>
+    <t>apple iphone 15 pro max 256 gb -titânio azul</t>
+  </si>
+  <si>
     <t>apple iphone 15 pro max 256 gb -titânio branco</t>
   </si>
   <si>
-    <t>apple iphone 15 pro max 256 gb -titânio azul</t>
-  </si>
-  <si>
     <t>apple iphone 15 pro max 256 gb -titânio preto</t>
   </si>
   <si>
     <t>iphone 15 pro max (256gb) titânio natural</t>
   </si>
   <si>
+    <t>iphone 15 pro max (256gb) titânio azul</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max (256gb) titânio branco</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max apple (256gb) titânio azul, tela de 6,7 pol, 5g e câmera de 48mp</t>
+  </si>
+  <si>
     <t>iphone 15 pro max apple (256gb) titânio preto, tela de 6,7 pol, 5g e câmera de 48mp</t>
   </si>
   <si>
-    <t>iphone 15 pro max apple (256gb) titânio azul, tela de 6,7 pol, 5g e câmera de 48mp</t>
-  </si>
-  <si>
-    <t>apple iphone 15 pro max 256gb 6,7 pol e-sim 5g modelo americano</t>
+    <t>apple iphone 15 pro max (256 gb) - titânio azul</t>
+  </si>
+  <si>
+    <t>apple iphone 15 pro max (256 gb) - titânio branco</t>
   </si>
   <si>
     <t>iphone 15 pro max 256gb tela de 6.7 xdr 48mp ultra- angular chip a17</t>
   </si>
   <si>
-    <t>apple iphone 15 pro max (256 gb) - titânio branco</t>
-  </si>
-  <si>
     <t>apple iphone 15 pro max - branco - 256 gb</t>
   </si>
   <si>
+    <t>smartphone iphone 15 pro max 256gb, câmera de 48mp, rede 5g e-sim, titânio ...</t>
+  </si>
+  <si>
+    <t>smartphone iphone 15 pro max 256gb, câmera de 48mp, rede 5g e-sim, titânio preto ...</t>
+  </si>
+  <si>
     <t>apple celular | iphone 15 pro max 256gb</t>
   </si>
   <si>
+    <t>iphone 15 pro max 256gb | celular apple</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max 256gb titânio azul</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max 256gb titânio preto</t>
+  </si>
+  <si>
+    <t>iphone 15 pro max 256gb titânio natural</t>
+  </si>
+  <si>
     <t>iphone 15 pro max 256gb titânio branco</t>
   </si>
   <si>
-    <t>iphone 15 pro max 256gb titânio preto</t>
-  </si>
-  <si>
-    <t>iphone 15 pro max 256gb titânio natural</t>
-  </si>
-  <si>
     <t>apple iphone 15 pro max (256 gb) — titânio preto</t>
   </si>
   <si>
+    <t>apple iphone 15 pro max 256 gb titânio branco</t>
+  </si>
+  <si>
     <t>apple iphone 15 pro max 256 gb titânio azul</t>
   </si>
   <si>
-    <t>apple iphone 15 pro max 256 gb titânio branco</t>
-  </si>
-  <si>
     <t>apple iphone 15 pro max (256 gb) — titânio azul</t>
   </si>
   <si>
+    <t>apple iphone 15 pro max 256gb titânio preto 6,7" 48mp ios 5g, 256gb, t</t>
+  </si>
+  <si>
     <t>apple iphone 15 pro max 256gb titânio azul 6,7" 48mp ios 5g, 256gb, ti</t>
   </si>
   <si>
-    <t>apple iphone 15 pro max 256gb titânio preto 6,7" 48mp ios 5g, 256gb, t</t>
-  </si>
-  <si>
     <t>iphone 15 pro max, titânio natural / 256gb</t>
   </si>
   <si>
-    <t>iphone 15 pro max titanium preto 256gb lacrado apple</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://shopbetter24.com.br/shop/product/smartphone-apple-iphone-15-pro-max-6-7-256-gb-black_763235%3Faff_t%3Dgmc%26srsltid%3DAfmBOorLJCQSbUdAgQhXkgFwwDUMz50YmopvDv3PjhqpKsAhevVXratiIus&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQguUECJ0Q&amp;usg=AOvVaw0HxOTEqvHq4kyMfSkdOsbo</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.trackerstore.com.br/MLB-3489196821-iphone-15-pro-max-256gb-_JM%3Fvariation%3D180378693191%26srsltid%3DAfmBOoojy7brGSQ1c1aF78sHAayC17PxwI1jkRZKLpNpDJiIX6yN62vtHi8&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECM0Q&amp;usg=AOvVaw2AKNTIEntt_AUdeoOsCIoL</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.dhrcomercio.com.br/MLB-3497305763-apple-iphone-15-pro-max-256-gb-dual-esim-_JM%3Fvariation%3D180471530695%26srsltid%3DAfmBOoqkw84CP51UT-BeqP_JrLmP6Ox3klpxlyzHLbK6OsecSf4DqpX_FKA&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECK4T&amp;usg=AOvVaw3GNgDBx3anJ3HKBexCaiZK</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.dhrcomercio.com.br/MLB-3497305763-apple-iphone-15-pro-max-256-gb-dual-esim-_JM%3Fvariation%3D181073342101%26srsltid%3DAfmBOorAnvHFhEm0H3TKAIfaO97FZs9DWyRGI1opm9IXz89SOelE6CvwqFQ&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQguUECPsN&amp;usg=AOvVaw1AxobQMyNRpBFDGYC7B6jc</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.importadorausabrasil.com.br/produtos/apple-iphone-15-pro-max-256gb-white-titanium/&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECPwR&amp;usg=AOvVaw3TxPCLElXQTGV_f8srHWAT</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.importadorausabrasil.com.br/produtos/apple-iphone-15-pro-max-256gb-blue-titanium/&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECJsR&amp;usg=AOvVaw0-sley_z69t495S_WZHb05</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.importadorausabrasil.com.br/produtos/apple-iphone-15-pro-max-256gb-black-titanium/&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECKwQ&amp;usg=AOvVaw2p9Gm9owHAn-QlxEoj9zog</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.importadorausabrasil.com.br/produtos/apple-iphone-15-pro-max-256gb-natural-titanium/&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECL8P&amp;usg=AOvVaw1DQPmjHyoLhlU2H8yCATjC</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.performancesolutions.com.br/smartphone-apple-iphone-15-pro-max-256gb-black-titanium%3Futm_source%3DSite%26utm_medium%3DGoogleMerchant%26utm_campaign%3DGoogleMerchant&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECOoN&amp;usg=AOvVaw1iA73Eo54FvPoq6o_RQgcF</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABAZGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAQYDSABEgLsIfD_BwE&amp;sig=AOD64_0iutXbGLm_lRwwAPbxrLCEmvuRuw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQww8I_Qs&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://lojaeurekashopping.com/products/iphone-15-pro-max%3Fvariant%3D47578984120633%26currency%3DBRL%26utm_medium%3Dproduct_sync%26utm_source%3Dgoogle%26utm_content%3Dsag_organic%26utm_campaign%3Dsag_organic%26srsltid%3DAfmBOorCimiQwV8uxwO4nhisokDgK3A6AiUA_K34nc2llePih6sS4hTgJXo&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECIwQ&amp;usg=AOvVaw0NoqX6QMkrD1KdsDlbnedp</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/apple-iphone-15-pro-256-gb-titnio-preto/p/MLB27172701%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQguUECPYM&amp;usg=AOvVaw02IUDBXpcDrecx9KwcHpCm</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABAxGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAQYGSABEgKqMvD_BwE&amp;sig=AOD64_2P_wMiRIKH9RbR5mo37PC58dRLbw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQww8IqQw&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABBfGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAsYCCABEgIJH_D_BwE&amp;sig=AOD64_0EYVSJAgwLDgh_4K_1fPiYzwUOsw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQ9A4I-BQ&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABAdGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAQYDyABEgJkTvD_BwE&amp;sig=AOD64_1BXBUawSy2HrxgbcIBjfxFpwFbwg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQww8IhQw&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABBdGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAsYByABEgLqiPD_BwE&amp;sig=AOD64_0XMEf7ezUf6WaG5jLFABV8Qg-O3Q&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQ9A4I9RQ&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.espacomiami.com/iphone-15-pro-max-256gb-titanio-natural&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECM0S&amp;usg=AOvVaw3nZVzJALchoaV0lE4br4Rl</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABAHGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAQYBCABEgL4QPD_BwE&amp;sig=AOD64_2XaeCt2Si6Si5-CZeDm3LV4mAfrg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQww8I2gs&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.carrefour.com.br/iphone-15-pro-max-apple-256gb-titanio-azul-tela-de-67-pol-5g-e-camera-de-48mp-mp935319687/p&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECNoN&amp;usg=AOvVaw0QVzggw8xun2Lw3Bp1rvhn</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABArGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAQYFiABEgKNlPD_BwE&amp;sig=AOD64_2YJs6M2hdywMfsZaYpkvEm1v8uwg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQww8Ingw&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.carrefour.com.br/apple-iphone-15-pro-max-256gb-67-pol-esim-5g-modelo-americano-mp935179191/p&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECKkN&amp;usg=AOvVaw301YuRIOfgKpBkUX7dAcEh</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABAnGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAQYFCABEgLo2vD_BwE&amp;sig=AOD64_28a_M-D3nZ9ITmKvQknAnoll_Wmw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQww8Ilww&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.balbinoshop.com.br/produto/iphone-15-pro-max-256gb-tela-de-6-7-xdr-48mp-ultra-angular-chip-a17-72800%3Futm_source%3D%26utm_medium%3D%26utm_campaign%3D&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECMoR&amp;usg=AOvVaw1LAJ8wIO7q3WyyelezNl5j</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/apple-iphone-15-pro-max-256-gb-titnio-branco/p/MLB27172715%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECJ0S&amp;usg=AOvVaw2fnBhu6PiN3UgoYffyogoO</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.mixhouseshop.com.br/apple/iphone/apple-iphone-15-pro-max%3Fvariant_id%3D586%26parceiro%3D7058%26srsltid%3DAfmBOoqUe6d-eNRp0L6O33Nny_pCPhfH_22bfia8aR5JZ2gGyUAD3zgp5dY&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECN4T&amp;usg=AOvVaw1OKopaC0VKr_nX-gSgngD7</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.enjoei.com.br/p/iphone-15-pro-max-256gb-94242946%3Fg_campaign%3Dgoogle_shopping%26srsltid%3DAfmBOoo9gI_KURqstrm5-vnaHsOYzW60gO1di44XPGqZ5hsffHPU9Ehtgsg&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECNwS&amp;usg=AOvVaw1_w1cD8K_Fl3_6h6gjl09Q</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://malibushop.com.br/produto/iphone-15-pro-max-256gb-titanio-branco/%3Fsrsltid%3DAfmBOoqa_cfANIXhzQcv_Xi2JieDyVKeqP6FrhD7g6IJLiG4xbSpitOOYy4&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECP0Q&amp;usg=AOvVaw38umFz-cz_2STpKDNCSHnR</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://malibushop.com.br/produto/iphone-15-pro-max-256gb-titanio-preto/%3Fsrsltid%3DAfmBOor4QTgYbgduYtgtLNJeLGhe_KfOwVa_TD39w3jnP_RzMEVknmFjs3E&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECL4T&amp;usg=AOvVaw1iFRXcc9XOnu2ShgbC4rVU</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://malibushop.com.br/produto/iphone-15-pro-max-256gb-titanio-natural/%3Fsrsltid%3DAfmBOop8szl42EO1O5JSZAVhqWSL53pWgMZ2m1fVu7afOnFhpM9vBVt3CeI&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECP8O&amp;usg=AOvVaw0FqhO7iZTYm4LzTa1Vyof2</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABAXGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAQYDCABEgI4f_D_BwE&amp;sig=AOD64_2yVfmgXe2G_bLiPrZkmIQvfnvv2g&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQww8I-Qs&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.amazon.com.br/Apple-iPhone-Pro-Max-256/dp/B0CHX5JW65%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA1ZZFT5FULY4LN&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQguUECJgN&amp;usg=AOvVaw0ILqE18vzDfzA4rvZ-nO0_</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABA5GgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAQYHSABEgKo6PD_BwE&amp;sig=AOD64_2bS2_HxTza0zz1Ld4xRKBeFHaC2Q&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQww8Itww&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABBVGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAsYAyABEgLlXPD_BwE&amp;sig=AOD64_27i50AnQwQxxLRNDfGvQ8-6xu7Vw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQ9A4I5hQ&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABBDGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAQYIiABEgJ-KvD_BwE&amp;sig=AOD64_3xiCuZS3U94RtOJnFLOcb1ls6YQw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQww8Iyww&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABBNGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAQYJyABEgJ1O_D_BwE&amp;sig=AOD64_0O-UPig-2CrTeK21JRt6HrogHv3A&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQww8I4Aw&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABAPGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAQYCCABEgLUVPD_BwE&amp;sig=AOD64_0QgpPWsJViqhSTkTAxEKo1rGUq-A&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQww8I6Qs&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABBPGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAQYKCABEgJobvD_BwE&amp;sig=AOD64_2ysMXvqpnxK2STzHfWEay112P-jA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQww8I5Aw&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABBTGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAsYAiABEgI03PD_BwE&amp;sig=AOD64_3956g_GRwfoiMnR-RS5DJoWSuJQw&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQ9A4I4RQ&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABABGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAQYASABEgKIVfD_BwE&amp;sig=AOD64_1YzcVp2vfoRZ6664gyiAl8qb7RGQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQww8Izgs&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABATGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAQYCiABEgIt7fD_BwE&amp;sig=AOD64_0b7sTfnpnNrlPqWhvAzdeLQ7yifQ&amp;ctype=46&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQqygI8Qs&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzjdLU062DAxXAX0gAHQVTBGQYABAJGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI843S1NOtgwMVwF9IAB0FUwRkEAQYBSABEgKnyPD_BwE&amp;sig=AOD64_2eZ-sl3wPget8V8XxdO9bYznToCQ&amp;ctype=46&amp;q=&amp;nis=4&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQqygI3Qs&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://findtech.store/products/iphone-pro-max%3Fcurrency%3DBRL%26variant%3D47582973821228%26utm_medium%3Dcpc%26utm_source%3Dgoogle%26utm_campaign%3DGoogle%2520Shopping%26stkn%3D22a36cef00e2%26srsltid%3DAfmBOoq6gLg-9Q1H-CTBTKA32r11B1M1VKwtI50fZjXm18vrg8Gwir0W06A&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECP0P&amp;usg=AOvVaw1FxTdm5L_9QdJcIs2sLDt4</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://produto.mercadolivre.com.br/MLB-3535804191-iphone-15-pro-max-titanium-preto-256gb-lacrado-_JM%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwiEzczU062DAxVEppUCHbfRDCYQgOUECO0T&amp;usg=AOvVaw31nZkGOD_O4HciuNI8TXbA</t>
+    <t>apple iphone 15 pro max 256gb preto + capa +carregador</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://wantimport.com/produto/iphone-15-pro-max/%3Fattribute_pa_gb%3D256-gb%26attribute_pa_cor%3Dtitanio-branco%26srsltid%3DAfmBOoqYImWRNgSNQKse4PLgRQNjJY3pBZGsmgFdjFePWBKONXN5sNE9BEs&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQguUECP8S&amp;usg=AOvVaw3xlOnb-q4oLbdIHQ0KmedV</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.trackerstore.com.br/MLB-3489196821-iphone-15-pro-max-256gb-_JM%3Fvariation%3D180378057083%26srsltid%3DAfmBOop3IBTgy8Sxz7t8T--ESjY1KTmPQLrdkxNro7EMybGO9qmS2m1BVvU&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECLoM&amp;usg=AOvVaw2GfCDuCxgYUSwsBY7h9x6G</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.dhrcomercio.com.br/MLB-3497305763-apple-iphone-15-pro-max-256-gb-dual-esim-_JM%3Fvariation%3D180471530695%26srsltid%3DAfmBOopu5ERfxBWxos0W53ebgwkDtZ7n4WShVCvtvdsLOTPp0beSc43bNP8&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECPYL&amp;usg=AOvVaw0Wr6XuHLH1PnoqAl6Gy2vZ</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.importadorausabrasil.com.br/produtos/apple-iphone-15-pro-max-256gb-white-titanium/&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECIsR&amp;usg=AOvVaw0of0si-AZDfPEoLg5Tohvd</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.importadorausabrasil.com.br/produtos/apple-iphone-15-pro-max-256gb-natural-titanium/&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECNgR&amp;usg=AOvVaw0eemX31Cvl8SUm019HEQAW</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.importadorausabrasil.com.br/produtos/apple-iphone-15-pro-max-256gb-blue-titanium/&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECJoQ&amp;usg=AOvVaw3F9jDcPiQn4dtpxCxHAKoW</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.importadorausabrasil.com.br/produtos/apple-iphone-15-pro-max-256gb-black-titanium/&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECMES&amp;usg=AOvVaw3pnu9ITGhfRF8ZZca00Cx_</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.performancesolutions.com.br/smartphone-apple-iphone-15-pro-max-256gb-black-titanium%3Futm_source%3DSite%26utm_medium%3DGoogleMerchant%26utm_campaign%3DGoogleMerchant&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECNoM&amp;usg=AOvVaw3THY9nig2PpWBIGocNTrYh</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABALGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYBiABEgJ7dfD_BwE&amp;sig=AOD64_3igYINzfZ4Gt3YMQvehxnWvE7Lbg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQww8IgAs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://lojaeurekashopping.com/products/iphone-15-pro-max%3Fvariant%3D47578984218937%26currency%3DBRL%26utm_medium%3Dproduct_sync%26utm_source%3Dgoogle%26utm_content%3Dsag_organic%26utm_campaign%3Dsag_organic%26srsltid%3DAfmBOoo9qOJytJOeQtBVzFqcQo-RUQcCAAYy7mBfUt87R0Wy6rr48sMniSA&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECNsO&amp;usg=AOvVaw0u_xMqQH7oWOH9pUQamD3_</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.carrefour.com.br/apple-iphone-15-pro-max-256gb-67-pol-esim-5g-modelo-americano-mp935179191/p&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECKoN&amp;usg=AOvVaw1v0aKaetb7nIYdQh54HpGg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABATGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYCiABEgKUB_D_BwE&amp;sig=AOD64_2ZT5_gGZFpZzUwkF6ronRTr4qWKg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQww8IkAs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABAxGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAsYASABEgIe0fD_BwE&amp;sig=AOD64_0moaKN2-qVoQ2ESFEhStUUOMGC4Q&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQ9A4IrhM&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABAVGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYCyABEgJL7_D_BwE&amp;sig=AOD64_1vcX6UPrdNVmzB7PJAAIJ2Xj2rsA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQww8Ikws&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABAtGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYFyABEgK1ZPD_BwE&amp;sig=AOD64_2tR5a4iwvNn0rw6-b_8EPIgEK1Wg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQww8IwAs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABAvGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYGCABEgJr9fD_BwE&amp;sig=AOD64_3aumLbaD6WBBDla3AELf_mrQU9CA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQww8Iwws&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.espacomiami.com/iphone-15-pro-max-256gb-titanio-natural&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECLgR&amp;usg=AOvVaw11FQzLIidPa7koRNNw7kPJ</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.espacomiami.com/iphone-15-pro-max-256gb-titanio-azul&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECJYS&amp;usg=AOvVaw2QUUPiKlkkWj5NhFaW3aWH</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.espacomiami.com/iphone-15-pro-max-256gb-titanio-branco&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECO4S&amp;usg=AOvVaw1jozR64QvRJ3kM6zZecyEG</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABAJGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYBSABEgIENfD_BwE&amp;sig=AOD64_2DJEL1tZUs3ZPe2Q9J2T1sI0XubQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQww8I_Qo&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABAFGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYAyABEgL-5PD_BwE&amp;sig=AOD64_3FplhTBBJ7RDOQPk4s7jxOOo_24Q&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQww8I9go&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.carrefour.com.br/iphone-15-pro-max-apple-256gb-titanio-azul-tela-de-67-pol-5g-e-camera-de-48mp-mp935319687/p&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECKwO&amp;usg=AOvVaw3qXlPs8unbzYhZUnLGy0X8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/apple-iphone-15-pro-max-256-gb-titnio-azul/p/MLB27172717%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQguUECOYL&amp;usg=AOvVaw0sn-TgdjRC6D1KdX-PlYZc</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/apple-iphone-15-pro-max-256-gb-titnio-branco/p/MLB27172715%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECIcM&amp;usg=AOvVaw34Od_OyndbvECj1Ul35GDo</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABAfGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYECABEgJ_kPD_BwE&amp;sig=AOD64_2kIVbyEu9gz8Ueiyy4iKNwkSAs5A&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQww8Ipgs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.balbinoshop.com.br/produto/iphone-15-pro-max-256gb-tela-de-6-7-xdr-48mp-ultra-angular-chip-a17-72800%3Futm_source%3D%26utm_medium%3D%26utm_campaign%3D&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECMoP&amp;usg=AOvVaw0m3YSuqqUIFm-VbqUiknRT</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.mixhouseshop.com.br/apple/iphone/apple-iphone-15-pro-max%3Fvariant_id%3D586%26parceiro%3D7058%26srsltid%3DAfmBOop7aN7t3SB2EV8aEkNaVK2mmwztu9M1iUFaPzioDmMXHyuT24SENfo&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECPsP&amp;usg=AOvVaw3MQe9M6qNhbGW0hmcBQ116</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.xongeek.com.br/smartphone-iphone-15-pro-max-256gb-camera-de-48mp-rede-5g-titanio-natural-apple&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECO0Q&amp;usg=AOvVaw2u9SjNEhQkfLrfsTL7T1rf</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.xongeek.com.br/smartphone-iphone-15-pro-max-256gb-camera-de-48mp-rede-5g-titanio-preto-apple&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECOsP&amp;usg=AOvVaw0UTwSxnJQEjbRo1mX5OhBb</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.enjoei.com.br/p/iphone-15-pro-max-256gb-94242946%3Fg_campaign%3Dgoogle_shopping%26srsltid%3DAfmBOoq-yYzS4zof9fVidqhXF3RsX56dwUcR1FvXx_0m69E2g5o3ypiF-gQ&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECKkR&amp;usg=AOvVaw2FqS3AEffEMRt21C1wSyHs</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.enjoei.com.br/p/iphone-15-pro-max-256gb-92202716%3Fg_campaign%3Dgoogle_shopping%26srsltid%3DAfmBOordUBlTsOjgDuFmSER4FtTiuPh60FWzCUbpBYK1BKLfABiNgt1WvJk&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECKoP&amp;usg=AOvVaw1jc6qfVfPsCv5LCdoLlIgD</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://malibushop.com.br/produto/iphone-15-pro-max-256gb-titanio-azul/%3Fsrsltid%3DAfmBOops1bT6n6LqEFme3lYUpFc3DYZnVWIcCB2lvYesyQ8XiMSsqi4U1-s&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECLoP&amp;usg=AOvVaw0QDvS9PKwGzHCcToBFhe98</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://malibushop.com.br/produto/iphone-15-pro-max-256gb-titanio-preto/%3Fsrsltid%3DAfmBOooP05n0U3OsJrEY7gza1fnzGcFObzvDiqvkSi_vYK0ImlE2lW3E9Xw&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECMoM&amp;usg=AOvVaw37-bzBJI9AXC_fn4iN5KrP</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://malibushop.com.br/produto/iphone-15-pro-max-256gb-titanio-natural/%3Fsrsltid%3DAfmBOopW3r92k7FZIUVK3Xcm1vZqscNcY0TL2LMoHyabenfnJwwWiv5_GVw&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECOwN&amp;usg=AOvVaw2L37SMsPe2YQ5FBeDxNme1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://malibushop.com.br/produto/iphone-15-pro-max-256gb-titanio-branco/%3Fsrsltid%3DAfmBOopmxmSee65OFhsl0fi50oK2aYfEZCYnVrAVdUYrZV9ix823BXO8qeU&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECOsO&amp;usg=AOvVaw1qM7A9NcnveZAfL456_ZZB</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABAPGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYCCABEgIibfD_BwE&amp;sig=AOD64_1jpbAKWfPTBwIcSitIfXqjwFwxIQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQww8IiAs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABANGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYByABEgK0-_D_BwE&amp;sig=AOD64_34YcUEGtAsvmsoEKb-_4e-NC9M9w&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQww8IhAs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABAdGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYDyABEgL6m_D_BwE&amp;sig=AOD64_0ptMwgsuGVqsfAd4tp4-kuUHbmjA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQww8IoQs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABA3GgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAsYBCABEgIuavD_BwE&amp;sig=AOD64_0wyutlf6vVDvzihJJkMZmqSsk6MQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQ9A4IuxM&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABAhGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYESABEgLpLPD_BwE&amp;sig=AOD64_2-N7GlDXzylkh44C70-H1J0V9PFg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQww8Iqgs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABAjGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYEiABEgI1JfD_BwE&amp;sig=AOD64_2_pBMeLHcaf9Oyn5_jGox9krNJug&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQww8Irgs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABApGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYFSABEgKcgPD_BwE&amp;sig=AOD64_0lTzF-i0XGv90dvq4OdCfsduxHCg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQww8IuAs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABArGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYFiABEgIRjPD_BwE&amp;sig=AOD64_1fqKijUUMjdsQ5pkWH_BH9PY5WMg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQww8IvAs&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABAzGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAsYAiABEgInz_D_BwE&amp;sig=AOD64_0wYErVzPNM0umG8qFLdFzBKJXIfg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQ9A4IshM&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABA9GgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAsYByABEgIxEvD_BwE&amp;sig=AOD64_1zq-vfnM1IqDeL1Eq6h56NCbD6_A&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQ9A4IxhM&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABABGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYASABEgIy4fD_BwE&amp;sig=AOD64_0l4A7-9Yxx-N3ozr6ovgtYrkmIvg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQww8I7go&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABAHGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYBCABEgK3hvD_BwE&amp;sig=AOD64_3APaDpnoofpYkdifV0usADaUFdqw&amp;ctype=46&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQqygI-Qo&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjaqf2Dg66DAxXVYkgAHS0CAkkYABADGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2qn9g4OugwMV1WJIAB0tAgJJEAQYAiABEgLVmfD_BwE&amp;sig=AOD64_2rNPyhqZket7EwKMUcX_3KDIOz9A&amp;ctype=46&amp;q=&amp;nis=4&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQqygI8go&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://findtech.store/products/iphone-pro-max%3Fcurrency%3DBRL%26variant%3D47582973821228%26utm_medium%3Dcpc%26utm_source%3Dgoogle%26utm_campaign%3DGoogle%2520Shopping%26stkn%3D22a36cef00e2%26srsltid%3DAfmBOoreWnOm1_hiqm2d1NSlRNPPNoWTwFOasUHT5Lm7oBDCZcJAug2V1uU&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECIkN&amp;usg=AOvVaw0EtGviYGUIK238yi6UvQ82</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://produto.mercadolivre.com.br/MLB-3506698811-apple-iphone-15-pro-max-256gb-preto-capa-carregador-_JM%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjBi_iDg66DAxUgq5UCHZf9DZUQgOUECIwP&amp;usg=AOvVaw32n0XepDYL93JRZ5ju3t6J</t>
   </si>
   <si>
     <t>gigabyte placa gráfica rtx 4060 ti windforce oc 16gb gddr6 prateado</t>
   </si>
   <si>
-    <t>placa de vídeo rtx 4060 ti ventus 3x 16g oc msi nvidia geforce</t>
+    <t>msi placa gráfica rtx 4060 ti gaming x 16gb gddr6 preto</t>
   </si>
   <si>
     <t>placa de vídeo rtx 4060 ti twin x2 oc inno3d nvidia geforce, 16gb gddr</t>
@@ -284,37 +320,40 @@
     <t>placa de vídeo rtx 4060 ti gaming x 16g msi nvidia geforce</t>
   </si>
   <si>
+    <t>placa de vídeo rtx 4060 ti gainward panther 16gb</t>
+  </si>
+  <si>
     <t>placa de vídeo rtx 4060 ti gaming x slim 16g msi nvidia geforce, 16gb gddr6, g-sync, hdr, dlss, ray trancing</t>
   </si>
   <si>
     <t>placa de vídeo galax geforce rtx 4060 ti ex (1-click oc), 16gb gddr6,</t>
   </si>
   <si>
-    <t>https://www.google.com/url?url=https://shopbetter24.com.br/shop/product/graphics-card-gigabyte-gv-n406twf2oc-16gd-geforce-rtx-4060-ti_770582%3Faff_t%3Dgmc%26srsltid%3DAfmBOopMpR958Ds-qWnygAXyiklqdo3BNOqGFQSTvIAsXdqPd0zXZsbcfDE&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwj-m_HZ062DAxVbs5UCHavfDZAQguUECMcT&amp;usg=AOvVaw30A_zZAcxau_9WxPQc0xTY</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/474920/placa-de-video-rtx-4060-ti-ventus-3x-16g-oc-msi-nvidia-geforce-%3Fsrsltid%3DAfmBOopmlaXWlTgxKdnSRXhFElTX73ruP4kSjow5KqMRnnsxnnHaLy5QT7A&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwj-m_HZ062DAxVbs5UCHavfDZAQguUECOMN&amp;usg=AOvVaw22aYbQPt1yiR5N_49XtLOk</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-rtx-4060-ti-twin-x2-oc-inno3d-nvidia-geforce-16gb-gddr6-dual-fan-dlss-ray-tracing-g-sync-n406t2-16d6x-178055n/p/be55g4cgh5/in/pcvd/%3Fseller_id%3Dkabum%26srsltid%3DAfmBOoqB-g0074PkcYiX2mQqhp22-ZWt7V8yrHD7sGWAnZYhf2H9qKTk4AA&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwj-m_HZ062DAxVbs5UCHavfDZAQguUECMkO&amp;usg=AOvVaw09lOsJeci1IRGSMkaB2gHZ</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/474307/placa-de-video-rtx-4060-ti-twin-x2-oc-white-inno3d-nvidia-geforce-16gb-gddr6-dual-fan-dlss-ray-tracing-g-sync-n406t2-16d6x-178055w%3Fsrsltid%3DAfmBOorpaRnX8I8pdVP6ioxlLXqjNEc6EodrRMaDEO2c8h7VsP7-Ep0QZ9Q&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwj-m_HZ062DAxVbs5UCHavfDZAQguUECIwQ&amp;usg=AOvVaw2zRdTJZiKVi8ipslfGEoec</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwibg_bZ062DAxW1REgAHV81BJsYABANGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMIm4P22dOtgwMVtURIAB1fNQSbEAQYByABEgJUFvD_BwE&amp;sig=AOD64_1zxxtN3axjBjpawrOTmShnChR1oA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwj-m_HZ062DAxVbs5UCHavfDZAQww8IxA0&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/474919/placa-de-video-rtx-4060-ti-gaming-x-16g-msi-nvidia-geforce-%3Fsrsltid%3DAfmBOook2MzVtYuFMPTICZe599IATmH8Qd2SF9-OwSr7wgdRE4deccHS_Vo&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwj-m_HZ062DAxVbs5UCHavfDZAQguUECIYO&amp;usg=AOvVaw1jV4SQDZUnkjixHufMYyil</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwibg_bZ062DAxW1REgAHV81BJsYABARGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMIm4P22dOtgwMVtURIAB1fNQSbEAQYCSABEgISuvD_BwE&amp;sig=AOD64_3UstUXL_oYW11I2uqybpVIIohJPQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwj-m_HZ062DAxVbs5UCHavfDZAQww8Iyg0&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-galax-geforce-rtx-4060-ti-ex-1-click-oc-16gb-gddr6-128-bit-46izl8md8yex-nac%3Fsrsltid%3DAfmBOopNCbj8FJCtXdF3VwjOlBoXsnTwZOdThpR3M-bWM1d0MXMDgYj6eog&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwj-m_HZ062DAxVbs5UCHavfDZAQguUECJUO&amp;usg=AOvVaw2aThVj6v7Gl-BDg_I_DhRz</t>
-  </si>
-  <si>
-    <t>apple recondicionado macbook pro 13 m2/16gb/256gb ssd transparente spanish qwerty</t>
+    <t>https://www.google.com/url?url=https://shopbetter24.com.br/shop/product/graphics-card-gigabyte-gv-n406twf2oc-16gd-geforce-rtx-4060-ti_770582%3Faff_t%3Dgmc%26srsltid%3DAfmBOopeVT7q_zcwNJdnoRAhf8DMZOWPBYIPsZD5FaxWxqcXMRtjR5ijv6A&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjlxpKJg66DAxXJqJUCHeZODLgQguUECNsR&amp;usg=AOvVaw0Tn92DCSzy49iyNaCmfLnA</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://shopbetter24.com.br/shop/product/graphics-card-msi-geforce-rtx-4060-ti-gaming-x-16g-geforce-rtx-4060-ti_695392%3Faff_t%3Dgmc%26srsltid%3DAfmBOoreuWgKOkAoogAK77gJarGKXjwmsAgnKfUq4aWvrfOPjfJEpNaB-wc&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjlxpKJg66DAxXJqJUCHeZODLgQguUECOkP&amp;usg=AOvVaw0IQasECjAt9GJoyOFRLlPM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-rtx-4060-ti-twin-x2-oc-inno3d-nvidia-geforce-16gb-gddr6-dual-fan-dlss-ray-tracing-g-sync-n406t2-16d6x-178055n/p/be55g4cgh5/in/pcvd/%3Fseller_id%3Dkabum%26srsltid%3DAfmBOooGT75lTz6VzDYxSEvElQIdXQkMYWgFQi5IC488nXjRkgwRB7rmegA&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjlxpKJg66DAxXJqJUCHeZODLgQguUECKYO&amp;usg=AOvVaw37GDIhoQnVqBxlhCvB9fzJ</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-rtx-4060-ti-twin-x2-oc-white-inno3d-nvidia-geforce-16gb-gddr6-dual-fan-dlss-ray-tracing-g-sync-n406t2-16d6x-178055w/p/hah63c93e6/in/pcvd/%3Fseller_id%3Dkabum%26srsltid%3DAfmBOooqulhId4U9o9zyeHLBfhK1kLzx05yu-Hnntfh9sqPii2rEM-n3q-k&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjlxpKJg66DAxXJqJUCHeZODLgQguUECPoP&amp;usg=AOvVaw2Y64ND3inpWt-6R_ICtCjb</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjYhpeJg66DAxVCVEgAHV5tAC4YABALGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2IaXiYOugwMVQlRIAB1ebQAuEAQYBiABEgLgHfD_BwE&amp;sig=AOD64_1-IW0WCu_H8Cws686FC6khF04F2A&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjlxpKJg66DAxXJqJUCHeZODLgQww8Itw0&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/474919/placa-de-video-rtx-4060-ti-gaming-x-16g-msi-nvidia-geforce-%3Fsrsltid%3DAfmBOoqUHNnypSr9YIJaXKmGHrper-zSlxUNTyAFo8QcFd_F8b4QdgJLPmw&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjlxpKJg66DAxXJqJUCHeZODLgQguUECOMN&amp;usg=AOvVaw361nSeuERcL2Fjzb04KzkC</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.glacon.com.br/hardware/placas-de-video/nvidia/placa-de-video-geforce-rtx-4060-ti-16gb-gd6-128b-panther-ne6406t019t1-1061z-gainward%3Fparceiro%3D5926&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjlxpKJg66DAxXJqJUCHeZODLgQguUECKkT&amp;usg=AOvVaw2kQS68CJIenIGD_8zyqu_Y</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjYhpeJg66DAxVCVEgAHV5tAC4YABATGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2IaXiYOugwMVQlRIAB1ebQAuEAQYCiABEgIyXvD_BwE&amp;sig=AOD64_20ErTZPxEqaQq0tD4cKmpPbRiDPQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjlxpKJg66DAxXJqJUCHeZODLgQww8Ixg0&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-galax-geforce-rtx-4060-ti-ex-1-click-oc-16gb-gddr6-128-bit-46izl8md8yex-nac%3Fsrsltid%3DAfmBOorp-NdUF5Ec-75RwmEbhoFTcj4iduVmnjdF4ZrQgWbG8Awd17b_QUM&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjlxpKJg66DAxXJqJUCHeZODLgQguUECIQO&amp;usg=AOvVaw1_DZyRnVJlz43yC8H7SVmQ</t>
   </si>
   <si>
     <t>apple computador portátil macbook air 13 m2/16gb/256gb ssd cinzento spanish ...</t>
@@ -323,6 +362,9 @@
     <t>apple computador portátil macbook air 15.3 m2 8cpu 10gpu/16gb/256gb ssd azul ...</t>
   </si>
   <si>
+    <t>laptop macbook air 2022 com chip m2: tela retina líquida de 13,6 polegadas, 16gb ...</t>
+  </si>
+  <si>
     <t>apple computador portátil macbook air 13 m2/16gb/512gb ssd preto spanish qwerty</t>
   </si>
   <si>
@@ -332,46 +374,55 @@
     <t>macbook air 13.6 m2 apple, 16gb ram 8core 256gb ssd lacrado</t>
   </si>
   <si>
-    <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-recondicionado-macbook-pro-13-m2-16gb-256gb-ssd/140548502/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D142032729%26country%3Dbr%26srsltid%3DAfmBOooDPijr1uKPu_su2fXWsFXzFJhQl9XHXFDWQIODHe137U6y3cpP2kk&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi715fe062DAxXPrpUCHXENBOoQgOUECN4P&amp;usg=AOvVaw2zrwNgmBd2gDIJMk8jG0ii</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-computador-portatil-macbook-air-13-m2-16gb-256gb-ssd/139943616/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D139788373%26country%3Dbr%26srsltid%3DAfmBOorRb5gFAWFRH_5yVM5Y0O5G85KU1xQ5lTlQX5Edx5TqZDUUfwwsZAw&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi715fe062DAxXPrpUCHXENBOoQgOUECPwM&amp;usg=AOvVaw38IVfQpbeH9TyV2YSs-PLn</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-computador-portatil-macbook-air-13-m2-16gb-256gb-ssd/139943615/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D139788372%26country%3Dbr%26srsltid%3DAfmBOoqx7NjOe0IEiQjZmlHBBkJk3DxZKISkKQz0OkRUdOxwh5q2hJkAkhY&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi715fe062DAxXPrpUCHXENBOoQgOUECIoO&amp;usg=AOvVaw2SBTNWFiBjVOdQhLg29XfX</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-computador-portatil-macbook-air-15.3-m2-8cpu-10gpu-16gb-256gb-ssd/140423935/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D141465330%26country%3Dbr%26srsltid%3DAfmBOophi_vGQMrITlAhoU4F-i1_sMqnBDQ2QIfAYq3KWltQErmYhtmw2DI&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi715fe062DAxXPrpUCHXENBOoQguUECLIS&amp;usg=AOvVaw1yiI8Ui-lHsJ6ilZOL9oLc</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-computador-portatil-macbook-air-13-m2-16gb-512gb-ssd/139943617/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D139788374%26country%3Dbr%26srsltid%3DAfmBOorerc1ldvCjxdb4XnBSh5sUuDmV6so0JaN-NjVGlKXv6ecdS1RHrZA&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi715fe062DAxXPrpUCHXENBOoQgOUECJwN&amp;usg=AOvVaw1go42bGcXedg8wZF4orgUB</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj9qKHe062DAxWNFq0GHUqmAC4YABADGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMI_aih3tOtgwMVjRatBh1KpgAuEAQYAiABEgJd-_D_BwE&amp;sig=AOD64_14g-kzq3GiupFkzGeWeyjgJyF62A&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi715fe062DAxXPrpUCHXENBOoQww8I-Ao&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/macbook-air-136-m2-256gb-16-ram-z15s000ct-c/p/MLB24743040%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi715fe062DAxXPrpUCHXENBOoQgOUECIgR&amp;usg=AOvVaw1xb5J1Up8x1otJDbcJOsSd</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://produto.mercadolivre.com.br/MLB-4294937876-macbook-air-136-m2-apple-16gb-ram-8core-256gb-ssd-lacrado-_JM%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi715fe062DAxXPrpUCHXENBOoQgOUECKwQ&amp;usg=AOvVaw1yqXXEoKdbdcPoZriX50o1</t>
+    <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-computador-portatil-macbook-air-13-m2-16gb-256gb-ssd/139943616/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D139788373%26country%3Dbr%26srsltid%3DAfmBOooixclB5V3v-U6qIK2mUlF7NFsz-UpJo3a6C1KLCnv_axO2hHRljW0&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwihq_WNg66DAxX0pJUCHfBrDVoQgOUECNQM&amp;usg=AOvVaw1BioooVplG7hr0s0TN6wC6</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-computador-portatil-macbook-air-13-m2-16gb-256gb-ssd/139943615/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D139788372%26country%3Dbr%26srsltid%3DAfmBOoqo_zQm83qisxTWzMF-uvK-JVhTZoWjf99NWHvHL3FH3dyBF-MlRMQ&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwihq_WNg66DAxX0pJUCHfBrDVoQgOUECLMN&amp;usg=AOvVaw3mCwF7Ku-Zb2cL2onmstaB</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-computador-portatil-macbook-air-15.3-m2-8cpu-10gpu-16gb-256gb-ssd/140423935/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D141465330%26country%3Dbr%26srsltid%3DAfmBOooeMXdrLHglzvRmvayAucIM5V5GMzzzYlcrWVepUeB2FKIeazzkxEY&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwihq_WNg66DAxX0pJUCHfBrDVoQguUECJ4R&amp;usg=AOvVaw0TCJRv3hdCw12eH9Wy1e0k</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=%23&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwihq_WNg66DAxX0pJUCHfBrDVoQgOUECLUM&amp;usg=AOvVaw3MQNcr2cGJtEMSblYVzNGs</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/apple-computador-portatil-macbook-air-13-m2-16gb-512gb-ssd/139943617/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D139788374%26country%3Dbr%26srsltid%3DAfmBOoqFfDzb5ZR_jZztvkleVp8nOxLWWMew8jizfLfWYWtNxxJlzJN6ml0&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwihq_WNg66DAxX0pJUCHfBrDVoQgOUECLQP&amp;usg=AOvVaw1MxD8rGEUiZPWRG77bVw5_</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwja2fuNg66DAxW2RkgAHVYkC_4YABADGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMI2tn7jYOugwMVtkZIAB1WJAv-EAQYAiABEgI7bfD_BwE&amp;sig=AOD64_0_lTQal9mLqmKGULEyB4VSEixKsg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwihq_WNg66DAxX0pJUCHfBrDVoQww8I-go&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://produto.mercadolivre.com.br/MLB-4294937876-macbook-air-136-m2-apple-16gb-ram-8core-256gb-ssd-lacrado-_JM%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwihq_WNg66DAxX0pJUCHfBrDVoQgOUECOEN&amp;usg=AOvVaw0IfBXrDY7fwIPkAAjpH-pU</t>
+  </si>
+  <si>
+    <t>processador amd ryzen 7 5800x3d, 8-core, 16-threads, 3.4ghz (4.5ghz turbo), cache 100mb, am4, 100-100000651wof</t>
   </si>
   <si>
     <t>processador amd ryzen 7 5800x3d, 3.4ghz (4.5ghz max turbo), cache 100mb, am4, sem vídeo - 100-100000651wof</t>
   </si>
   <si>
+    <t>processador amd ryzen 7 5800x3d box am4 4.5ghz 100mb cache s/ cooler s/ vídeo ...</t>
+  </si>
+  <si>
     <t>processador amd am4 ryzen r7-5800x3d 4.5ghz/100mb/3.4ghz base grafico nao ...</t>
   </si>
   <si>
     <t>processador amd zen 3 ryzen 7 5800x3d 8cores 4.5ghz 105w socket am4</t>
   </si>
   <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjH1cfi062DAxUGWEgAHf2SBAQYABADGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMIx9XH4tOtgwMVBlhIAB39kgQEEAQYAiABEgJoB_D_BwE&amp;sig=AOD64_1uqFdKuzDF8u8nKpO-r29MJZXbOA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwj76cPi062DAxVVrJUCHZhrCpEQww8Itgk&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.biostechconecta.com.br/produto/processador-amd-am4-ryzen-r7-5800x3d-45ghz100mb34ghz-base-grafico-nao-integrado-s-cooler.html%3Fsrsltid%3DAfmBOoqEvE0R1U4SV91eHVcSDP8kBQmDMiQ1cA-7M54B56Cg6eZgF8KsbS0&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwj76cPi062DAxVVrJUCHZhrCpEQgOUECPIO&amp;usg=AOvVaw3MEc8eAbQhhz2WGlGCQZHj</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.fullinfoinformatica.com.br/processador-amd-zen-3-ryzen-7-5800x3d-8cores-45ghz-105w-socket-am4%3Fsrsltid%3DAfmBOorHXWEkmCNFuBvjCcga2P9lZ5zCa7ALEIAR1BGzkKOFNuqP8So81Uk&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwj76cPi062DAxVVrJUCHZhrCpEQgOUECPAN&amp;usg=AOvVaw2pvVbyarIondi9bnlieWlt</t>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwin3JeTg66DAxUGRUgAHd40DVQYABABGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMIp9yXk4OugwMVBkVIAB3eNA1UEAQYASABEgIeS_D_BwE&amp;sig=AOD64_2-TcWdHln7qv2ky8fm1zN0QTUY1w&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjI5pOTg66DAxVkpZUCHatkAaYQww8IvAk&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwin3JeTg66DAxUGRUgAHd40DVQYABAHGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMIp9yXk4OugwMVBkVIAB3eNA1UEAsYAiABEgK9c_D_BwE&amp;sig=AOD64_0YpeNwowAF6OgPvLdJsJDHPfjdNA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwjI5pOTg66DAxVkpZUCHatkAaYQ9A4ImRE&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.shoptime.com.br/produto/5807300303%3Fopn%3DGOOGLEXML%26offerId%3D630d05ab9064f2befb63fbed%26srsltid%3DAfmBOoon5pSiVqMDxFP0V3__FvGyAoxQziDbssHqFiy6yHpHrJOuMDB546I&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjI5pOTg66DAxVkpZUCHatkAaYQgOUECL8N&amp;usg=AOvVaw3A8-_wXbUWJo72EagIlyWq</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.biostechconecta.com.br/produto/processador-amd-am4-ryzen-r7-5800x3d-45ghz100mb34ghz-base-grafico-nao-integrado-s-cooler.html%3Fsrsltid%3DAfmBOoqgJHi1goG0S2BjJoW6VVUNIxgulj6VPaG2J47hJAja8R6uL2wdzts&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjI5pOTg66DAxVkpZUCHatkAaYQgOUECL4P&amp;usg=AOvVaw1cwh1Ae6Cu842DK3L_u84K</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.fullinfoinformatica.com.br/processador-amd-zen-3-ryzen-7-5800x3d-8cores-45ghz-105w-socket-am4%3Fsrsltid%3DAfmBOoqdBP3OkD-dfWCULRACXkVvNOEJBw8KruHZF9TAq4ilsK1iRlLpepQ&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwjI5pOTg66DAxVkpZUCHatkAaYQgOUECK8P&amp;usg=AOvVaw2xcmPu5JhpvMH06vakw_hX</t>
   </si>
   <si>
     <t>logitech-g733 lightspeed sem fio rgb gaming headset, pro-g, dts headphone, 2.0 ...</t>
@@ -401,52 +452,55 @@
     <t># black november # fone sem fio logitech g733 rgb lightsync 7.1 dolby surround ...</t>
   </si>
   <si>
+    <t>headset gamer sem fio logitech g733 7.1 dolby surround com tecnologia blue vo!ce, rgb lightsync, drivers de áudio avançados e bateria recarregável</t>
+  </si>
+  <si>
     <t>headset gamer sem fio logitech g733 7.1 dolby surround com tecnologia blue vo!ce ...</t>
   </si>
   <si>
-    <t>headset gamer sem fio logitech g733 7.1 dolby surround com tecnologia blue vo!ce, rgb lightsync, drivers de áudio avançados e bateria recarregável</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=%23&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi_pu3m062DAxVWlJUCHSEtDksQgOUECKQM&amp;usg=AOvVaw1GES8MR2eO9aQwE6H8YDgZ</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.gkinfostore.com.br/headset-gamer-logitech-g733-wireless-rgb-league-of-legends-kda-gaming-dts-71-surround-com-blue-voice-azul-981-000989.html&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi_pu3m062DAxVWlJUCHSEtDksQgOUECLkL&amp;usg=AOvVaw2hCFpc4BnzTFevJhZtu3ek</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjV7fbm062DAxVNLa0GHdgjArEYABADGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMI1e325tOtgwMVTS2tBh3YIwKxEAQYAiABEgKozfD_BwE&amp;sig=AOD64_3lL3Cyew4OKdv2BrbYC9V6Hxuq7w&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi_pu3m062DAxVWlJUCHSEtDksQww8I6wo&amp;adurl=</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/120487/headset-gamer-sem-fio-logitech-g733-7-1-dolby-surround-rgb-lightsync-blue-voice-para-pc-e-playstation-preto-981-000863%3Fsrsltid%3DAfmBOop4L-w-rypivM5ogj1i8neMKY_OM-6RjFTK7HB-N_lj0W6VK96kwhI&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi_pu3m062DAxVWlJUCHSEtDksQguUECI0L&amp;usg=AOvVaw3F1HWU5EWVCISJCjOWkRGu</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/fone-de-ouvido-mic-logitech-gamer-g733-dolby-surround-s-fio-azul-faixa-de-cabeca-logitech-p-headset-g733-roxo%3Fsrsltid%3DAfmBOortnFaAw4ufuEDOGlCDMxw66_fSGS-aIiJqDKlqAdTOTYYBFwA7MpA&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi_pu3m062DAxVWlJUCHSEtDksQgOUECMkL&amp;usg=AOvVaw3FM_ym6_jaxGANG1UU99wj</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/fone-de-ouvido-mic-logitech-gamer-g733-lightspeed-s-fio-azul-faixa-de-cabeca-logitech-p-headset-g733-laranja%3Fsrsltid%3DAfmBOorFqLFxoyTd0o5GIeMwQBRcfKDLhHx1sb2XgwSrUk4kchoM5ra14g4&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi_pu3m062DAxVWlJUCHSEtDksQgOUECOcL&amp;usg=AOvVaw1TTRSfLgJlH6Db02iXKSF1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/kit-headset-gamer-sem-fio-logitech-g733-lilas-fun-mic-covers%3Fsrsltid%3DAfmBOopq3vqEGEm1f6heNywR9w9kxJL0BojBLHOtyaYafvBYeldtDBG8S28&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi_pu3m062DAxVWlJUCHSEtDksQgOUECMIM&amp;usg=AOvVaw2Z1n6xZU_2ySn-xpzFisNc</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/fone-de-ouvido-mic-logitech-gamer-g733-lightspeed-s-fio-azul-faixa-de-cabeca-logitech-p-headset-g733-g335-azul%3Fsrsltid%3DAfmBOooYngEGBpWRDuXDeRLd4Xd9u8qKYZ5n0yXCW5U-e-TuM4czzi-S-i0&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi_pu3m062DAxVWlJUCHSEtDksQgOUECLkN&amp;usg=AOvVaw0nvCykaAKV8yF7WcgFXuiz</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/kit-headset-gamer-sem-fio-logitech-g733-azul-fun-mic-covers%3Fsrsltid%3DAfmBOophi_Roh30v8QIJin968kPMGBWABN-dfzlsRlup5yg--KUpEEw_soo&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi_pu3m062DAxVWlJUCHSEtDksQgOUECKgO&amp;usg=AOvVaw04L2ORZR0OWBu7YA-EoYZf</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/fone-de-ouvido-mic-logitech-gamer-g733-lightspeed-s-fio-azul-faixa-de-cabeca-logitech-p-headset-g733-g335-lilas%3Fsrsltid%3DAfmBOoruGQ4IGMW9mwUoklXyQD4XslxBsvAAolrm52h6yciezRkWWi6jSSc&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi_pu3m062DAxVWlJUCHSEtDksQgOUECNcO&amp;usg=AOvVaw2bEQOLLgJJZ1IP95MBvmJg</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.progaming.com.br/fone-sem-fio-logitech-g733-rgb-lightsync-7-1-dolby-surround-com-blue-voice-branco-981-000882-p4205&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi_pu3m062DAxVWlJUCHSEtDksQgOUECNAQ&amp;usg=AOvVaw2_pHlzY79GvGrYRmOMWbBz</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.progaming.com.br/promocao-fone-sem-fio-logitech-g733-rgb-lightsync-7-1-dolby-surround-com-blue-voice-lilas-981-000889-p3995&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi_pu3m062DAxVWlJUCHSEtDksQgOUECOwR&amp;usg=AOvVaw1u3Ts1tVqL1gJ3DrAZ2iBz</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?url=https://www.amazon.com.br/Logitech-Tecnologia-LIGHTSYNC-Recarreg%25C3%25A1vel-Playstation/dp/B084TFWTH5%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA1ZZFT5FULY4LN&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi_pu3m062DAxVWlJUCHSEtDksQguUECPwK&amp;usg=AOvVaw3JOQS-kQY7FiEdhMrGEOr2</t>
-  </si>
-  <si>
-    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjV7fbm062DAxVNLa0GHdgjArEYABABGgJwdg&amp;ase=2&amp;gclid=EAIaIQobChMI1e325tOtgwMVTS2tBh3YIwKxEAQYASABEgL7b_D_BwE&amp;sig=AOD64_3Gr6EealTDvz3109gfPVvtAF5YLg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi_pu3m062DAxVWlJUCHSEtDksQww8I5wo&amp;adurl=</t>
+    <t>https://www.google.com/url?url=%23&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi2iOGXg66DAxWpl5UCHeQmBQsQgOUECN0M&amp;usg=AOvVaw2lwofCuek77TUdPQBvwidE</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.gkinfostore.com.br/headset-gamer-logitech-g733-wireless-rgb-league-of-legends-kda-gaming-dts-71-surround-com-blue-voice-azul-981-000989.html&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi2iOGXg66DAxWpl5UCHeQmBQsQgOUECKUL&amp;usg=AOvVaw3dYqYH3zdhuQ6hkIArr1TQ</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiRyOWXg66DAxXyVEgAHZZxBE8YABAHGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMIkcjll4OugwMV8lRIAB2WcQRPEAsYAiABEgIq9PD_BwE&amp;sig=AOD64_2I5xMhJPpRs4mzkHRTCVI04gJ9vg&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi2iOGXg66DAxWpl5UCHeQmBQsQ9A4IixI&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/120487/headset-gamer-sem-fio-logitech-g733-7-1-dolby-surround-rgb-lightsync-blue-voice-para-pc-e-playstation-preto-981-000863%3Fsrsltid%3DAfmBOooaMSunrNWO_Myx93kl7OILQ1MLBBqD9v6OUMs-Z7gCRhNwrM3ytpc&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi2iOGXg66DAxWpl5UCHeQmBQsQguUECJYL&amp;usg=AOvVaw3t2C0Mf0nJaznfgjjOObGw</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/fone-de-ouvido-mic-logitech-gamer-g733-dolby-surround-s-fio-azul-faixa-de-cabeca-logitech-p-headset-g733-roxo%3Fsrsltid%3DAfmBOorbEYEA2QqHdb8v9oS0sTMcAa-J9TwBzsULY6uZnth2H3Z7kOWl0DE&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi2iOGXg66DAxWpl5UCHeQmBQsQgOUECLUL&amp;usg=AOvVaw2j8342uArFPlgkAtSEHhsR</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/fone-de-ouvido-mic-logitech-gamer-g733-lightspeed-s-fio-azul-faixa-de-cabeca-logitech-p-headset-g733-laranja%3Fsrsltid%3DAfmBOopvgXuwAnty1MtoXvh0-A3it59EkHyyDsuQ7E5Ty3lJzGFasUUljMk&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi2iOGXg66DAxWpl5UCHeQmBQsQgOUECMML&amp;usg=AOvVaw3EfJE7q18VYPEmt5Rh1lik</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/kit-headset-gamer-sem-fio-logitech-g733-lilas-fun-mic-covers%3Fsrsltid%3DAfmBOoqElT_9C8luBlrgDKQWJcaGBOT3qFWLhn0bJv3ET0GzC_jNqu8bChQ&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi2iOGXg66DAxWpl5UCHeQmBQsQgOUECM8M&amp;usg=AOvVaw1pECoUOMM59wqIIBgJ0M0t</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/fone-de-ouvido-mic-logitech-gamer-g733-lightspeed-s-fio-azul-faixa-de-cabeca-logitech-p-headset-g733-g335-azul%3Fsrsltid%3DAfmBOopz161rhM1tIPIcoWYCED2LhTL9vJgjk4MLwM1LJqRCOACSplp1_4Y&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi2iOGXg66DAxWpl5UCHeQmBQsQgOUECLcN&amp;usg=AOvVaw1sB-z0AT3CeUpqyaYmI0By</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/fone-de-ouvido-mic-logitech-gamer-g733-lightspeed-s-fio-azul-faixa-de-cabeca-logitech-p-headset-g733-g335-lilas%3Fsrsltid%3DAfmBOoqYY8zi4t-Pcc_XGdj-hLths5TTpCNUqJwDhmdh96MOrfflCX6XeNg&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi2iOGXg66DAxWpl5UCHeQmBQsQgOUECJ8O&amp;usg=AOvVaw1ZsbrrRH1wfi2zANetSqVv</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.logitechstore.com.br/kit-headset-gamer-sem-fio-logitech-g733-azul-fun-mic-covers%3Fsrsltid%3DAfmBOorjK4qrVyiVsnchschdj77ygRlnv3PkMZ33-KqgmF2xyvVTctQzfGo&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi2iOGXg66DAxWpl5UCHeQmBQsQgOUECNwO&amp;usg=AOvVaw1kA4mD1MNOtme21G57iaqA</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.progaming.com.br/promocao-fone-sem-fio-logitech-g733-rgb-lightsync-7-1-dolby-surround-com-blue-voice-lilas-981-000889-p3995&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi2iOGXg66DAxWpl5UCHeQmBQsQgOUECNYP&amp;usg=AOvVaw00n-SF7Dj3vWI4h-HeScAh</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.progaming.com.br/fone-sem-fio-logitech-g733-rgb-lightsync-7-1-dolby-surround-com-blue-voice-preto-981-000863-p4206&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi2iOGXg66DAxWpl5UCHeQmBQsQgOUECJcR&amp;usg=AOvVaw1s0qMK5RdLBtj4BYIhVjzg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiRyOWXg66DAxXyVEgAHZZxBE8YABADGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMIkcjll4OugwMV8lRIAB2WcQRPEAQYAiABEgKaM_D_BwE&amp;sig=AOD64_0Yfgb2X8U5eP5_SIhc3mmp61SNNQ&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi2iOGXg66DAxWpl5UCHeQmBQsQww8I5wo&amp;adurl=</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?url=https://www.amazon.com.br/Logitech-Tecnologia-LIGHTSYNC-Recarreg%25C3%25A1vel-Playstation/dp/B084TFWTH5%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA1ZZFT5FULY4LN&amp;rct=j&amp;q=&amp;esrc=s&amp;opi=95576897&amp;sa=U&amp;ved=0ahUKEwi2iOGXg66DAxWpl5UCHeQmBQsQguUECPgK&amp;usg=AOvVaw0l6ggEcjQef5T7uX3W74fx</t>
+  </si>
+  <si>
+    <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiRyOWXg66DAxXyVEgAHZZxBE8YABABGgJjZQ&amp;ase=2&amp;gclid=EAIaIQobChMIkcjll4OugwMV8lRIAB2WcQRPEAQYASABEgJ6M_D_BwE&amp;sig=AOD64_0osrLVbHj-wUJoZLPuP1xMdWMsMA&amp;ctype=5&amp;q=&amp;nis=4&amp;ved=0ahUKEwi2iOGXg66DAxWpl5UCHeQmBQsQww8I4wo&amp;adurl=</t>
   </si>
 </sst>
 </file>
@@ -827,11 +881,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -849,10 +908,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>8089.54</v>
+        <v>8174.51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -863,7 +922,7 @@
         <v>8290</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,7 +933,7 @@
         <v>8345.2199999999993</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -882,10 +941,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>8345.2199999999993</v>
+        <v>8399</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -896,7 +955,7 @@
         <v>8399</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -907,7 +966,7 @@
         <v>8399</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -918,7 +977,7 @@
         <v>8399</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -926,10 +985,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>8399</v>
+        <v>8482.49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -937,10 +996,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>8482.49</v>
+        <v>8490</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,10 +1007,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>8490</v>
+        <v>8499.99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -959,98 +1018,98 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>8499.99</v>
+        <v>8698</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>8616.5</v>
+        <v>8698</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>8699</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>8699.99</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>8699.99</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>8699.99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>8711.1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>8799</v>
+        <v>8711.1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>8799</v>
+        <v>8711.1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1061,7 +1120,7 @@
         <v>8799</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1069,21 +1128,21 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>8899</v>
+        <v>8799</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>8899</v>
+        <v>8799</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1091,10 +1150,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>8909.89</v>
+        <v>8799.99</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1102,208 +1161,208 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>8999.99</v>
+        <v>8810</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>9009</v>
+        <v>8810</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>9264</v>
+        <v>8864.89</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>9339.65</v>
+        <v>9009</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>9339.65</v>
+        <v>9166.66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>9339.65</v>
+        <v>9166.66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>9448.99</v>
+        <v>9264</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>9448.99</v>
+        <v>9300</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>9449</v>
+        <v>9339.65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>9449</v>
+        <v>9339.65</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>9449</v>
+        <v>9339.65</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>9449</v>
+        <v>9339.65</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>9449</v>
+        <v>9448.99</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>9449</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>9449</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <v>9449.01</v>
+        <v>9449</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B41">
-        <v>9449.1</v>
+        <v>9449</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B42">
-        <v>9449.1</v>
+        <v>9449</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B43">
-        <v>9470</v>
+        <v>9449</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1311,10 +1370,87 @@
         <v>37</v>
       </c>
       <c r="B44">
-        <v>9499</v>
+        <v>9449</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>9449</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>9449</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47">
+        <v>9449.01</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48">
+        <v>9449.1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49">
+        <v>9449.1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50">
+        <v>9470</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51">
+        <v>9490</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1362,6 +1498,13 @@
     <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1369,16 +1512,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="94.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1393,90 +1531,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>2866.28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B3">
-        <v>3099.99</v>
+        <v>3120.42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>3199.99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>3199.99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>3299.99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B7">
         <v>3299.99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B8">
-        <v>3399.99</v>
+        <v>3379.03</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B9">
         <v>3399.99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>3399.99</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1489,6 +1638,7 @@
     <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
     <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1496,16 +1646,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="80" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1520,90 +1665,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B2">
-        <v>7221.99</v>
+        <v>8091.99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>8091.99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B4">
-        <v>8091.99</v>
+        <v>8612.99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B5">
-        <v>8612.99</v>
+        <v>9018.69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>9710.99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B7">
         <v>10925</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B8">
-        <v>10925</v>
+        <v>10999</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9">
-        <v>10999</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +1749,6 @@
     <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1623,16 +1756,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="101.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1647,35 +1775,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>1988.99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B3">
-        <v>2498.2800000000002</v>
+        <v>1988.99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B4">
+        <v>2420.8000000000002</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5">
+        <v>2498.2800000000002</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6">
         <v>2499.9899999999998</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>115</v>
+      <c r="C6" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1683,6 +1833,8 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1690,16 +1842,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="134.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1714,156 +1861,167 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B2">
         <v>672.34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B3">
         <v>799</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B4">
         <v>829.99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B5">
         <v>829.99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B6">
         <v>894.91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B7">
         <v>894.91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B8">
         <v>894.91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B9">
         <v>894.91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B10">
         <v>894.91</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B11">
         <v>894.91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B12">
         <v>899.99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B13">
         <v>899.99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B14">
         <v>900</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B15">
+        <v>900</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16">
         <v>915</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>140</v>
+      <c r="C16" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1882,6 +2040,7 @@
     <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
     <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
     <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
